--- a/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7917029991480883</v>
+        <v>0.7917029991480901</v>
       </c>
       <c r="D2">
-        <v>0.9819735304347915</v>
+        <v>0.9819735304347923</v>
       </c>
       <c r="E2">
-        <v>0.8245903693865878</v>
+        <v>0.8245903693865893</v>
       </c>
       <c r="F2">
-        <v>0.838477123072093</v>
+        <v>0.8384771230720948</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027376001152569</v>
+        <v>1.02737600115257</v>
       </c>
       <c r="J2">
-        <v>0.8225838206344205</v>
+        <v>0.822583820634422</v>
       </c>
       <c r="K2">
-        <v>0.9936898495144917</v>
+        <v>0.9936898495144922</v>
       </c>
       <c r="L2">
-        <v>0.8391889496253834</v>
+        <v>0.8391889496253847</v>
       </c>
       <c r="M2">
-        <v>0.8527634786014422</v>
+        <v>0.852763478601444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8354929847567699</v>
+        <v>0.8354929847567713</v>
       </c>
       <c r="D3">
-        <v>0.9957845346583885</v>
+        <v>0.9957845346583875</v>
       </c>
       <c r="E3">
-        <v>0.8620528107466849</v>
+        <v>0.8620528107466862</v>
       </c>
       <c r="F3">
-        <v>0.876720594204298</v>
+        <v>0.8767205942042977</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033869566739053</v>
+        <v>1.033869566739052</v>
       </c>
       <c r="J3">
-        <v>0.861754007187894</v>
+        <v>0.8617540071878954</v>
       </c>
       <c r="K3">
-        <v>1.006471638828445</v>
+        <v>1.006471638828444</v>
       </c>
       <c r="L3">
-        <v>0.8748190075025631</v>
+        <v>0.8748190075025648</v>
       </c>
       <c r="M3">
-        <v>0.8892185485476455</v>
+        <v>0.889218548547645</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8582931475168611</v>
+        <v>0.8582931475168594</v>
       </c>
       <c r="D4">
-        <v>1.003280452887676</v>
+        <v>1.003280452887675</v>
       </c>
       <c r="E4">
-        <v>0.8816275746054411</v>
+        <v>0.8816275746054394</v>
       </c>
       <c r="F4">
-        <v>0.8968623154231073</v>
+        <v>0.896862315423106</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.037338077549196</v>
       </c>
       <c r="J4">
-        <v>0.8821770324888007</v>
+        <v>0.8821770324887991</v>
       </c>
       <c r="K4">
-        <v>1.013339446319588</v>
+        <v>1.013339446319587</v>
       </c>
       <c r="L4">
-        <v>0.8934011718603611</v>
+        <v>0.8934011718603601</v>
       </c>
       <c r="M4">
-        <v>0.9083885728996451</v>
+        <v>0.9083885728996438</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8670110860026764</v>
+        <v>0.8670110860026742</v>
       </c>
       <c r="D5">
         <v>1.006194484764461</v>
       </c>
       <c r="E5">
-        <v>0.8891228058640719</v>
+        <v>0.8891228058640699</v>
       </c>
       <c r="F5">
-        <v>0.9045941138072706</v>
+        <v>0.9045941138072684</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.038674889664558</v>
       </c>
       <c r="J5">
-        <v>0.8899884528847182</v>
+        <v>0.889988452884716</v>
       </c>
       <c r="K5">
         <v>1.015995979121289</v>
       </c>
       <c r="L5">
-        <v>0.9005091171625265</v>
+        <v>0.9005091171625245</v>
       </c>
       <c r="M5">
-        <v>0.9157410413190968</v>
+        <v>0.9157410413190947</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8684320869315952</v>
+        <v>0.8684320869315938</v>
       </c>
       <c r="D6">
-        <v>1.0066717932094</v>
+        <v>1.006671793209399</v>
       </c>
       <c r="E6">
-        <v>0.8903450208047028</v>
+        <v>0.8903450208047012</v>
       </c>
       <c r="F6">
-        <v>0.9058557112827182</v>
+        <v>0.9058557112827169</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03889320711708</v>
+        <v>1.038893207117079</v>
       </c>
       <c r="J6">
-        <v>0.8912617572190255</v>
+        <v>0.8912617572190239</v>
       </c>
       <c r="K6">
         <v>1.016430389236386</v>
       </c>
       <c r="L6">
-        <v>0.901667777620264</v>
+        <v>0.9016677776202624</v>
       </c>
       <c r="M6">
-        <v>0.9169403850956289</v>
+        <v>0.9169403850956274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8584126562880213</v>
+        <v>0.8584126562880224</v>
       </c>
       <c r="D7">
         <v>1.003320229389215</v>
       </c>
       <c r="E7">
-        <v>0.8817302846300249</v>
+        <v>0.8817302846300258</v>
       </c>
       <c r="F7">
-        <v>0.896968205020047</v>
+        <v>0.8969682050200475</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.037356370054044</v>
       </c>
       <c r="J7">
-        <v>0.8822841084640287</v>
+        <v>0.8822841084640295</v>
       </c>
       <c r="K7">
         <v>1.013375758608557</v>
       </c>
       <c r="L7">
-        <v>0.8934986028524885</v>
+        <v>0.8934986028524894</v>
       </c>
       <c r="M7">
-        <v>0.9084892923626038</v>
+        <v>0.9084892923626042</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D8">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E8">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F8">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J8">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K8">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L8">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M8">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D9">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E9">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F9">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J9">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K9">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L9">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M9">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D10">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E10">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F10">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J10">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K10">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L10">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M10">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D11">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E11">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F11">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J11">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K11">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L11">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M11">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D12">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E12">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F12">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J12">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K12">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L12">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M12">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D13">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E13">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F13">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J13">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K13">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L13">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M13">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D14">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E14">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F14">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J14">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K14">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L14">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M14">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D15">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E15">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F15">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J15">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K15">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L15">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M15">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D16">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E16">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F16">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J16">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K16">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L16">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M16">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D17">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E17">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F17">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J17">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K17">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L17">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M17">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D18">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E18">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F18">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J18">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K18">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L18">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M18">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D19">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E19">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F19">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J19">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K19">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L19">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M19">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D20">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E20">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F20">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J20">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K20">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L20">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M20">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D21">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E21">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F21">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J21">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K21">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L21">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M21">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D22">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E22">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F22">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J22">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K22">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L22">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M22">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D23">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E23">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F23">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J23">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K23">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L23">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M23">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D24">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E24">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F24">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J24">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K24">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L24">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M24">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.808061174702338</v>
+        <v>0.8080611747023334</v>
       </c>
       <c r="D25">
-        <v>0.9870350779328647</v>
+        <v>0.9870350779328635</v>
       </c>
       <c r="E25">
-        <v>0.838562139484498</v>
+        <v>0.838562139484494</v>
       </c>
       <c r="F25">
-        <v>0.8526832247945515</v>
+        <v>0.8526832247945482</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J25">
-        <v>0.8372049325318481</v>
+        <v>0.837204932531844</v>
       </c>
       <c r="K25">
-        <v>0.9983935792560322</v>
+        <v>0.998393579256031</v>
       </c>
       <c r="L25">
-        <v>0.8524868681027615</v>
+        <v>0.8524868681027576</v>
       </c>
       <c r="M25">
-        <v>0.8663131658546644</v>
+        <v>0.8663131658546613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7917029991480901</v>
+        <v>0.7917029991480883</v>
       </c>
       <c r="D2">
-        <v>0.9819735304347923</v>
+        <v>0.9819735304347915</v>
       </c>
       <c r="E2">
-        <v>0.8245903693865893</v>
+        <v>0.8245903693865878</v>
       </c>
       <c r="F2">
-        <v>0.8384771230720948</v>
+        <v>0.838477123072093</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02737600115257</v>
+        <v>1.027376001152569</v>
       </c>
       <c r="J2">
-        <v>0.822583820634422</v>
+        <v>0.8225838206344205</v>
       </c>
       <c r="K2">
-        <v>0.9936898495144922</v>
+        <v>0.9936898495144917</v>
       </c>
       <c r="L2">
-        <v>0.8391889496253847</v>
+        <v>0.8391889496253834</v>
       </c>
       <c r="M2">
-        <v>0.852763478601444</v>
+        <v>0.8527634786014422</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8354929847567713</v>
+        <v>0.8354929847567699</v>
       </c>
       <c r="D3">
-        <v>0.9957845346583875</v>
+        <v>0.9957845346583885</v>
       </c>
       <c r="E3">
-        <v>0.8620528107466862</v>
+        <v>0.8620528107466849</v>
       </c>
       <c r="F3">
-        <v>0.8767205942042977</v>
+        <v>0.876720594204298</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033869566739052</v>
+        <v>1.033869566739053</v>
       </c>
       <c r="J3">
-        <v>0.8617540071878954</v>
+        <v>0.861754007187894</v>
       </c>
       <c r="K3">
-        <v>1.006471638828444</v>
+        <v>1.006471638828445</v>
       </c>
       <c r="L3">
-        <v>0.8748190075025648</v>
+        <v>0.8748190075025631</v>
       </c>
       <c r="M3">
-        <v>0.889218548547645</v>
+        <v>0.8892185485476455</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8582931475168594</v>
+        <v>0.8582931475168611</v>
       </c>
       <c r="D4">
-        <v>1.003280452887675</v>
+        <v>1.003280452887676</v>
       </c>
       <c r="E4">
-        <v>0.8816275746054394</v>
+        <v>0.8816275746054411</v>
       </c>
       <c r="F4">
-        <v>0.896862315423106</v>
+        <v>0.8968623154231073</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.037338077549196</v>
       </c>
       <c r="J4">
-        <v>0.8821770324887991</v>
+        <v>0.8821770324888007</v>
       </c>
       <c r="K4">
-        <v>1.013339446319587</v>
+        <v>1.013339446319588</v>
       </c>
       <c r="L4">
-        <v>0.8934011718603601</v>
+        <v>0.8934011718603611</v>
       </c>
       <c r="M4">
-        <v>0.9083885728996438</v>
+        <v>0.9083885728996451</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8670110860026742</v>
+        <v>0.8670110860026764</v>
       </c>
       <c r="D5">
         <v>1.006194484764461</v>
       </c>
       <c r="E5">
-        <v>0.8891228058640699</v>
+        <v>0.8891228058640719</v>
       </c>
       <c r="F5">
-        <v>0.9045941138072684</v>
+        <v>0.9045941138072706</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.038674889664558</v>
       </c>
       <c r="J5">
-        <v>0.889988452884716</v>
+        <v>0.8899884528847182</v>
       </c>
       <c r="K5">
         <v>1.015995979121289</v>
       </c>
       <c r="L5">
-        <v>0.9005091171625245</v>
+        <v>0.9005091171625265</v>
       </c>
       <c r="M5">
-        <v>0.9157410413190947</v>
+        <v>0.9157410413190968</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8684320869315938</v>
+        <v>0.8684320869315952</v>
       </c>
       <c r="D6">
-        <v>1.006671793209399</v>
+        <v>1.0066717932094</v>
       </c>
       <c r="E6">
-        <v>0.8903450208047012</v>
+        <v>0.8903450208047028</v>
       </c>
       <c r="F6">
-        <v>0.9058557112827169</v>
+        <v>0.9058557112827182</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038893207117079</v>
+        <v>1.03889320711708</v>
       </c>
       <c r="J6">
-        <v>0.8912617572190239</v>
+        <v>0.8912617572190255</v>
       </c>
       <c r="K6">
         <v>1.016430389236386</v>
       </c>
       <c r="L6">
-        <v>0.9016677776202624</v>
+        <v>0.901667777620264</v>
       </c>
       <c r="M6">
-        <v>0.9169403850956274</v>
+        <v>0.9169403850956289</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8584126562880224</v>
+        <v>0.8584126562880213</v>
       </c>
       <c r="D7">
         <v>1.003320229389215</v>
       </c>
       <c r="E7">
-        <v>0.8817302846300258</v>
+        <v>0.8817302846300249</v>
       </c>
       <c r="F7">
-        <v>0.8969682050200475</v>
+        <v>0.896968205020047</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.037356370054044</v>
       </c>
       <c r="J7">
-        <v>0.8822841084640295</v>
+        <v>0.8822841084640287</v>
       </c>
       <c r="K7">
         <v>1.013375758608557</v>
       </c>
       <c r="L7">
-        <v>0.8934986028524894</v>
+        <v>0.8934986028524885</v>
       </c>
       <c r="M7">
-        <v>0.9084892923626042</v>
+        <v>0.9084892923626038</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D8">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E8">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F8">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J8">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K8">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L8">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M8">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D9">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E9">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F9">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J9">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K9">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L9">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M9">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D10">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E10">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F10">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J10">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K10">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L10">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M10">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D11">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E11">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F11">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J11">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K11">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L11">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M11">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D12">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E12">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F12">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J12">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K12">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L12">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M12">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D13">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E13">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F13">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J13">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K13">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L13">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M13">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D14">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E14">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F14">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J14">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K14">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L14">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M14">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D15">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E15">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F15">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J15">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K15">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L15">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M15">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D16">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E16">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F16">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J16">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K16">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L16">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M16">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D17">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E17">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F17">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J17">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K17">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L17">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M17">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D18">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E18">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F18">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J18">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K18">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L18">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M18">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D19">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E19">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F19">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J19">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K19">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L19">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M19">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D20">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E20">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F20">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J20">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K20">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L20">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M20">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D21">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E21">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F21">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J21">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K21">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L21">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M21">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D22">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E22">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F22">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J22">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K22">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L22">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M22">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D23">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E23">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F23">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J23">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K23">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L23">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M23">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D24">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E24">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F24">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J24">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K24">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L24">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M24">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8080611747023334</v>
+        <v>0.808061174702338</v>
       </c>
       <c r="D25">
-        <v>0.9870350779328635</v>
+        <v>0.9870350779328647</v>
       </c>
       <c r="E25">
-        <v>0.838562139484494</v>
+        <v>0.838562139484498</v>
       </c>
       <c r="F25">
-        <v>0.8526832247945482</v>
+        <v>0.8526832247945515</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.02977057990095</v>
       </c>
       <c r="J25">
-        <v>0.837204932531844</v>
+        <v>0.8372049325318481</v>
       </c>
       <c r="K25">
-        <v>0.998393579256031</v>
+        <v>0.9983935792560322</v>
       </c>
       <c r="L25">
-        <v>0.8524868681027576</v>
+        <v>0.8524868681027615</v>
       </c>
       <c r="M25">
-        <v>0.8663131658546613</v>
+        <v>0.8663131658546644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7917029991480883</v>
+        <v>0.7998306692652676</v>
       </c>
       <c r="D2">
-        <v>0.9819735304347915</v>
+        <v>0.9835217508549221</v>
       </c>
       <c r="E2">
-        <v>0.8245903693865878</v>
+        <v>0.8315328083167546</v>
       </c>
       <c r="F2">
-        <v>0.838477123072093</v>
+        <v>0.8441237767549897</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027376001152569</v>
+        <v>1.028160885725731</v>
       </c>
       <c r="J2">
-        <v>0.8225838206344205</v>
+        <v>0.8302462654475153</v>
       </c>
       <c r="K2">
-        <v>0.9936898495144917</v>
+        <v>0.9952155297452391</v>
       </c>
       <c r="L2">
-        <v>0.8391889496253834</v>
+        <v>0.8459735597662197</v>
       </c>
       <c r="M2">
-        <v>0.8527634786014422</v>
+        <v>0.8582870721269057</v>
+      </c>
+      <c r="N2">
+        <v>0.8314253103750285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8354929847567699</v>
+        <v>0.8426088327117303</v>
       </c>
       <c r="D3">
-        <v>0.9957845346583885</v>
+        <v>0.9970987029492667</v>
       </c>
       <c r="E3">
-        <v>0.8620528107466849</v>
+        <v>0.868159570003051</v>
       </c>
       <c r="F3">
-        <v>0.876720594204298</v>
+        <v>0.881562509891639</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033869566739053</v>
+        <v>1.034536829839562</v>
       </c>
       <c r="J3">
-        <v>0.861754007187894</v>
+        <v>0.868553109174329</v>
       </c>
       <c r="K3">
-        <v>1.006471638828445</v>
+        <v>1.007768841510092</v>
       </c>
       <c r="L3">
-        <v>0.8748190075025631</v>
+        <v>0.8808126527397965</v>
       </c>
       <c r="M3">
-        <v>0.8892185485476455</v>
+        <v>0.8939744567632173</v>
+      </c>
+      <c r="N3">
+        <v>0.8697865542137908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8582931475168611</v>
+        <v>0.8650567657145998</v>
       </c>
       <c r="D4">
-        <v>1.003280452887676</v>
+        <v>1.004510109508982</v>
       </c>
       <c r="E4">
-        <v>0.8816275746054411</v>
+        <v>0.8874438145758996</v>
       </c>
       <c r="F4">
-        <v>0.8968623154231073</v>
+        <v>0.9014176878907028</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037338077549196</v>
+        <v>1.037963008073323</v>
       </c>
       <c r="J4">
-        <v>0.8821770324888007</v>
+        <v>0.8886795301875291</v>
       </c>
       <c r="K4">
-        <v>1.013339446319588</v>
+        <v>1.014554404555972</v>
       </c>
       <c r="L4">
-        <v>0.8934011718603611</v>
+        <v>0.8991216959102736</v>
       </c>
       <c r="M4">
-        <v>0.9083885728996451</v>
+        <v>0.912872064978924</v>
+      </c>
+      <c r="N4">
+        <v>0.8899415570533624</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8670110860026764</v>
+        <v>0.8736619358098417</v>
       </c>
       <c r="D5">
-        <v>1.006194484764461</v>
+        <v>1.007396563786749</v>
       </c>
       <c r="E5">
-        <v>0.8891228058640719</v>
+        <v>0.8948461476100292</v>
       </c>
       <c r="F5">
-        <v>0.9045941138072706</v>
+        <v>0.9090566513482647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038674889664558</v>
+        <v>1.039286035016463</v>
       </c>
       <c r="J5">
-        <v>0.8899884528847182</v>
+        <v>0.8963967734313295</v>
       </c>
       <c r="K5">
-        <v>1.015995979121289</v>
+        <v>1.01718414929143</v>
       </c>
       <c r="L5">
-        <v>0.9005091171625265</v>
+        <v>0.9061426701538893</v>
       </c>
       <c r="M5">
-        <v>0.9157410413190968</v>
+        <v>0.9201364575868654</v>
+      </c>
+      <c r="N5">
+        <v>0.8976697596677491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8684320869315952</v>
+        <v>0.8750655529848548</v>
       </c>
       <c r="D6">
-        <v>1.0066717932094</v>
+        <v>1.007869593956585</v>
       </c>
       <c r="E6">
-        <v>0.8903450208047028</v>
+        <v>0.8960540489412964</v>
       </c>
       <c r="F6">
-        <v>0.9058557112827182</v>
+        <v>0.9103038807424405</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03889320711708</v>
+        <v>1.039502215524596</v>
       </c>
       <c r="J6">
-        <v>0.8912617572190255</v>
+        <v>0.8976556034941298</v>
       </c>
       <c r="K6">
-        <v>1.016430389236386</v>
+        <v>1.017614406363271</v>
       </c>
       <c r="L6">
-        <v>0.901667777620264</v>
+        <v>0.9072879504588717</v>
       </c>
       <c r="M6">
-        <v>0.9169403850956289</v>
+        <v>0.9213221799599768</v>
+      </c>
+      <c r="N6">
+        <v>0.898930377413628</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8584126562880213</v>
+        <v>0.8651746545285891</v>
       </c>
       <c r="D7">
-        <v>1.003320229389215</v>
+        <v>1.004549491888441</v>
       </c>
       <c r="E7">
-        <v>0.8817302846300249</v>
+        <v>0.8875451895808617</v>
       </c>
       <c r="F7">
-        <v>0.896968205020047</v>
+        <v>0.9015222481839876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037356370054044</v>
+        <v>1.03798110345027</v>
       </c>
       <c r="J7">
-        <v>0.8822841084640287</v>
+        <v>0.8887852500627258</v>
       </c>
       <c r="K7">
-        <v>1.013375758608557</v>
+        <v>1.014590333804567</v>
       </c>
       <c r="L7">
-        <v>0.8934986028524885</v>
+        <v>0.8992178755690047</v>
       </c>
       <c r="M7">
-        <v>0.9084892923626038</v>
+        <v>0.9129715225408191</v>
+      </c>
+      <c r="N7">
+        <v>0.8900474270629081</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D8">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E8">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F8">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J8">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K8">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L8">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M8">
-        <v>0.8663131658546644</v>
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N8">
+        <v>0.8456867857556469</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D9">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E9">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F9">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J9">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K9">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L9">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M9">
-        <v>0.8663131658546644</v>
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N9">
+        <v>0.8456867857556469</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D10">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E10">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F10">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J10">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K10">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L10">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M10">
-        <v>0.8663131658546644</v>
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N10">
+        <v>0.8456867857556469</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D11">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E11">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F11">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J11">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K11">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L11">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M11">
-        <v>0.8663131658546644</v>
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N11">
+        <v>0.8456867857556469</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D12">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E12">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F12">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J12">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K12">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L12">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M12">
-        <v>0.8663131658546644</v>
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N12">
+        <v>0.8456867857556469</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D13">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E13">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F13">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J13">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K13">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L13">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M13">
-        <v>0.8663131658546644</v>
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N13">
+        <v>0.8456867857556469</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D14">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E14">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F14">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J14">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K14">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L14">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M14">
-        <v>0.8663131658546644</v>
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N14">
+        <v>0.8456867857556469</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D15">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E15">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F15">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J15">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K15">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L15">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M15">
-        <v>0.8663131658546644</v>
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N15">
+        <v>0.8456867857556469</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D16">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E16">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F16">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J16">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K16">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L16">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M16">
-        <v>0.8663131658546644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N16">
+        <v>0.8456867857556469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D17">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E17">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F17">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J17">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K17">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L17">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M17">
-        <v>0.8663131658546644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N17">
+        <v>0.8456867857556469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D18">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E18">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F18">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J18">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K18">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L18">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M18">
-        <v>0.8663131658546644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N18">
+        <v>0.8456867857556469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D19">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E19">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F19">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J19">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K19">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L19">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M19">
-        <v>0.8663131658546644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N19">
+        <v>0.8456867857556469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D20">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E20">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F20">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J20">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K20">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L20">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M20">
-        <v>0.8663131658546644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N20">
+        <v>0.8456867857556469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D21">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E21">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F21">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J21">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K21">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L21">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M21">
-        <v>0.8663131658546644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N21">
+        <v>0.8456867857556469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D22">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E22">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F22">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J22">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K22">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L22">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M22">
-        <v>0.8663131658546644</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N22">
+        <v>0.8456867857556469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D23">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E23">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F23">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J23">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K23">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L23">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M23">
-        <v>0.8663131658546644</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N23">
+        <v>0.8456867857556469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D24">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E24">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F24">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J24">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K24">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L24">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M24">
-        <v>0.8663131658546644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N24">
+        <v>0.8456867857556469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.808061174702338</v>
+        <v>0.8157453164731076</v>
       </c>
       <c r="D25">
-        <v>0.9870350779328647</v>
+        <v>0.9884819074790198</v>
       </c>
       <c r="E25">
-        <v>0.838562139484498</v>
+        <v>0.8451381703687658</v>
       </c>
       <c r="F25">
-        <v>0.8526832247945515</v>
+        <v>0.8579796801711937</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02977057990095</v>
+        <v>1.030504463625764</v>
       </c>
       <c r="J25">
-        <v>0.8372049325318481</v>
+        <v>0.8444875166179774</v>
       </c>
       <c r="K25">
-        <v>0.9983935792560322</v>
+        <v>0.9998201926456682</v>
       </c>
       <c r="L25">
-        <v>0.8524868681027615</v>
+        <v>0.8589239995026895</v>
       </c>
       <c r="M25">
-        <v>0.8663131658546644</v>
+        <v>0.8715023465861919</v>
+      </c>
+      <c r="N25">
+        <v>0.8456867857556469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9949429719555171</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.029480932566265</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.001927286292934</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.004201317990375</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.04623603990559</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.017275997148598</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.040544279209123</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.013359836100291</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.015602430455278</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.009283944893394</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.000523353298544</v>
+      </c>
+      <c r="D3">
+        <v>1.032426766172063</v>
+      </c>
+      <c r="E3">
+        <v>1.006462457605829</v>
+      </c>
+      <c r="F3">
+        <v>1.010419626272964</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.048072808892865</v>
+      </c>
+      <c r="J3">
+        <v>1.020999761335873</v>
+      </c>
+      <c r="K3">
+        <v>1.042660893933646</v>
+      </c>
+      <c r="L3">
+        <v>1.017013312512174</v>
+      </c>
+      <c r="M3">
+        <v>1.020920899617541</v>
+      </c>
+      <c r="N3">
+        <v>1.010566978770766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.004044742559801</v>
+      </c>
+      <c r="D4">
+        <v>1.034290507574424</v>
+      </c>
+      <c r="E4">
+        <v>1.009330458431245</v>
+      </c>
+      <c r="F4">
+        <v>1.01434625908113</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.049220625184757</v>
+      </c>
+      <c r="J4">
+        <v>1.023345546276311</v>
+      </c>
+      <c r="K4">
+        <v>1.043991968124828</v>
+      </c>
+      <c r="L4">
+        <v>1.01931756240258</v>
+      </c>
+      <c r="M4">
+        <v>1.024274566769006</v>
+      </c>
+      <c r="N4">
+        <v>1.011374637646756</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.005504658554073</v>
+      </c>
+      <c r="D5">
+        <v>1.035064223608408</v>
+      </c>
+      <c r="E5">
+        <v>1.010520908392689</v>
+      </c>
+      <c r="F5">
+        <v>1.015974855196422</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.049693737428403</v>
+      </c>
+      <c r="J5">
+        <v>1.024317067587937</v>
+      </c>
+      <c r="K5">
+        <v>1.044542633987294</v>
+      </c>
+      <c r="L5">
+        <v>1.02027253422231</v>
+      </c>
+      <c r="M5">
+        <v>1.025664362145144</v>
+      </c>
+      <c r="N5">
+        <v>1.011708983363329</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.005748610573056</v>
+      </c>
+      <c r="D6">
+        <v>1.035193569049082</v>
+      </c>
+      <c r="E6">
+        <v>1.010719914347401</v>
+      </c>
+      <c r="F6">
+        <v>1.01624703391942</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.049772630816281</v>
+      </c>
+      <c r="J6">
+        <v>1.024479348483235</v>
+      </c>
+      <c r="K6">
+        <v>1.044634578732379</v>
+      </c>
+      <c r="L6">
+        <v>1.020432088947004</v>
+      </c>
+      <c r="M6">
+        <v>1.025896562617441</v>
+      </c>
+      <c r="N6">
+        <v>1.011764822595205</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.00406432927643</v>
+      </c>
+      <c r="D7">
+        <v>1.034300884065661</v>
+      </c>
+      <c r="E7">
+        <v>1.00934642436963</v>
+      </c>
+      <c r="F7">
+        <v>1.014368106175254</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.049226983586348</v>
+      </c>
+      <c r="J7">
+        <v>1.023358584561157</v>
+      </c>
+      <c r="K7">
+        <v>1.043999360801772</v>
+      </c>
+      <c r="L7">
+        <v>1.01933037601101</v>
+      </c>
+      <c r="M7">
+        <v>1.024293215037456</v>
+      </c>
+      <c r="N7">
+        <v>1.01137912533883</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9968480085177275</v>
+      </c>
+      <c r="D8">
+        <v>1.03048549110313</v>
+      </c>
+      <c r="E8">
+        <v>1.003474171258377</v>
+      </c>
+      <c r="F8">
+        <v>1.006323581001115</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.046865406014171</v>
+      </c>
+      <c r="J8">
+        <v>1.01854804011781</v>
+      </c>
+      <c r="K8">
+        <v>1.041267763149784</v>
+      </c>
+      <c r="L8">
+        <v>1.014607287444868</v>
+      </c>
+      <c r="M8">
+        <v>1.017418571298853</v>
+      </c>
+      <c r="N8">
+        <v>1.009722348654395</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9834004675042798</v>
+      </c>
+      <c r="D9">
+        <v>1.0234204526802</v>
+      </c>
+      <c r="E9">
+        <v>0.9925839624345796</v>
+      </c>
+      <c r="F9">
+        <v>0.9913529972169782</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.042377121987907</v>
+      </c>
+      <c r="J9">
+        <v>1.009553329884992</v>
+      </c>
+      <c r="K9">
+        <v>1.036144643195835</v>
+      </c>
+      <c r="L9">
+        <v>1.005798516618291</v>
+      </c>
+      <c r="M9">
+        <v>1.004587941424144</v>
+      </c>
+      <c r="N9">
+        <v>1.006620266358641</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9738732545243889</v>
+      </c>
+      <c r="D10">
+        <v>1.018454766208925</v>
+      </c>
+      <c r="E10">
+        <v>0.9849090902599258</v>
+      </c>
+      <c r="F10">
+        <v>0.9807584788316698</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.039141958642875</v>
+      </c>
+      <c r="J10">
+        <v>1.003163231399403</v>
+      </c>
+      <c r="K10">
+        <v>1.032498621343328</v>
+      </c>
+      <c r="L10">
+        <v>0.999556268326925</v>
+      </c>
+      <c r="M10">
+        <v>0.9954840583039457</v>
+      </c>
+      <c r="N10">
+        <v>1.004414270886507</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9695968267425515</v>
+      </c>
+      <c r="D11">
+        <v>1.016237494177741</v>
+      </c>
+      <c r="E11">
+        <v>0.9814749092350283</v>
+      </c>
+      <c r="F11">
+        <v>0.9760052286250043</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.037677648171496</v>
+      </c>
+      <c r="J11">
+        <v>1.000291487658251</v>
+      </c>
+      <c r="K11">
+        <v>1.030859556896513</v>
+      </c>
+      <c r="L11">
+        <v>0.9967548468231497</v>
+      </c>
+      <c r="M11">
+        <v>0.9913942956475662</v>
+      </c>
+      <c r="N11">
+        <v>1.003422530081023</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9679839897892368</v>
+      </c>
+      <c r="D12">
+        <v>1.015403212631688</v>
+      </c>
+      <c r="E12">
+        <v>0.9801814529065525</v>
+      </c>
+      <c r="F12">
+        <v>0.9742128472545004</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.037123651141763</v>
+      </c>
+      <c r="J12">
+        <v>0.9992079682960281</v>
+      </c>
+      <c r="K12">
+        <v>1.03024114382485</v>
+      </c>
+      <c r="L12">
+        <v>0.9956984561711842</v>
+      </c>
+      <c r="M12">
+        <v>0.9898513447662717</v>
+      </c>
+      <c r="N12">
+        <v>1.003048304004102</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9683310809485546</v>
+      </c>
+      <c r="D13">
+        <v>1.015582662877956</v>
+      </c>
+      <c r="E13">
+        <v>0.9804597316540655</v>
+      </c>
+      <c r="F13">
+        <v>0.9745985652535633</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.037242951293803</v>
+      </c>
+      <c r="J13">
+        <v>0.9994411668277564</v>
+      </c>
+      <c r="K13">
+        <v>1.030374238631967</v>
+      </c>
+      <c r="L13">
+        <v>0.9959257888397037</v>
+      </c>
+      <c r="M13">
+        <v>0.9901834194614997</v>
+      </c>
+      <c r="N13">
+        <v>1.003128847650518</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9694640168318402</v>
+      </c>
+      <c r="D14">
+        <v>1.016168753947803</v>
+      </c>
+      <c r="E14">
+        <v>0.9813683630975925</v>
+      </c>
+      <c r="F14">
+        <v>0.9758576285203866</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.037632063757516</v>
+      </c>
+      <c r="J14">
+        <v>1.000202273488287</v>
+      </c>
+      <c r="K14">
+        <v>1.030808637588448</v>
+      </c>
+      <c r="L14">
+        <v>0.9966678541833011</v>
+      </c>
+      <c r="M14">
+        <v>0.9912672510420392</v>
+      </c>
+      <c r="N14">
+        <v>1.003391717975888</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9701587721044477</v>
+      </c>
+      <c r="D15">
+        <v>1.016528428621309</v>
+      </c>
+      <c r="E15">
+        <v>0.9819257984175567</v>
+      </c>
+      <c r="F15">
+        <v>0.9766297656313478</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.037870454751198</v>
+      </c>
+      <c r="J15">
+        <v>1.00066895265926</v>
+      </c>
+      <c r="K15">
+        <v>1.03107499743824</v>
+      </c>
+      <c r="L15">
+        <v>0.9971229368657567</v>
+      </c>
+      <c r="M15">
+        <v>0.9919318258644192</v>
+      </c>
+      <c r="N15">
+        <v>1.003552894560734</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9741537439122696</v>
+      </c>
+      <c r="D16">
+        <v>1.018600454999543</v>
+      </c>
+      <c r="E16">
+        <v>0.9851345701424421</v>
+      </c>
+      <c r="F16">
+        <v>0.9810702854293868</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.039237757060466</v>
+      </c>
+      <c r="J16">
+        <v>1.003351521758006</v>
+      </c>
+      <c r="K16">
+        <v>1.03260608579504</v>
+      </c>
+      <c r="L16">
+        <v>0.9997400294745638</v>
+      </c>
+      <c r="M16">
+        <v>0.9957522339609444</v>
+      </c>
+      <c r="N16">
+        <v>1.004479289770823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9766180979858021</v>
+      </c>
+      <c r="D17">
+        <v>1.019881806878437</v>
+      </c>
+      <c r="E17">
+        <v>0.9871168517290417</v>
+      </c>
+      <c r="F17">
+        <v>0.9838100394307874</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.040078065112524</v>
+      </c>
+      <c r="J17">
+        <v>1.005005439520588</v>
+      </c>
+      <c r="K17">
+        <v>1.033549990587985</v>
+      </c>
+      <c r="L17">
+        <v>1.001354603933387</v>
+      </c>
+      <c r="M17">
+        <v>0.9981080197559513</v>
+      </c>
+      <c r="N17">
+        <v>1.005050368619753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9780410589103355</v>
+      </c>
+      <c r="D18">
+        <v>1.020622767717609</v>
+      </c>
+      <c r="E18">
+        <v>0.9882624675900277</v>
+      </c>
+      <c r="F18">
+        <v>0.9853922374551661</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.040562119285805</v>
+      </c>
+      <c r="J18">
+        <v>1.005960109614862</v>
+      </c>
+      <c r="K18">
+        <v>1.034094773314818</v>
+      </c>
+      <c r="L18">
+        <v>1.002286929349749</v>
+      </c>
+      <c r="M18">
+        <v>0.9994679756653717</v>
+      </c>
+      <c r="N18">
+        <v>1.005379970785704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9785238484273774</v>
+      </c>
+      <c r="D19">
+        <v>1.020874343122789</v>
+      </c>
+      <c r="E19">
+        <v>0.9886513266126389</v>
+      </c>
+      <c r="F19">
+        <v>0.9859290918935986</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.04072615333685</v>
+      </c>
+      <c r="J19">
+        <v>1.00628395700629</v>
+      </c>
+      <c r="K19">
+        <v>1.034279564893417</v>
+      </c>
+      <c r="L19">
+        <v>1.00260325841562</v>
+      </c>
+      <c r="M19">
+        <v>0.9999293352168391</v>
+      </c>
+      <c r="N19">
+        <v>1.005491773611729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9763552029132828</v>
+      </c>
+      <c r="D20">
+        <v>1.019744999250529</v>
+      </c>
+      <c r="E20">
+        <v>0.9869052778890863</v>
+      </c>
+      <c r="F20">
+        <v>0.9835177428184514</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.039988541058127</v>
+      </c>
+      <c r="J20">
+        <v>1.004829034959839</v>
+      </c>
+      <c r="K20">
+        <v>1.033449320163198</v>
+      </c>
+      <c r="L20">
+        <v>1.001182357682447</v>
+      </c>
+      <c r="M20">
+        <v>0.9978567395075302</v>
+      </c>
+      <c r="N20">
+        <v>1.004989461625443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9691310828485357</v>
+      </c>
+      <c r="D21">
+        <v>1.015996464936266</v>
+      </c>
+      <c r="E21">
+        <v>0.9811012965871566</v>
+      </c>
+      <c r="F21">
+        <v>0.975487622236585</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.037517762987474</v>
+      </c>
+      <c r="J21">
+        <v>0.999978620249202</v>
+      </c>
+      <c r="K21">
+        <v>1.030680987207735</v>
+      </c>
+      <c r="L21">
+        <v>0.9964497797907776</v>
+      </c>
+      <c r="M21">
+        <v>0.9909487614809857</v>
+      </c>
+      <c r="N21">
+        <v>1.003314473765997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9644469696489525</v>
+      </c>
+      <c r="D22">
+        <v>1.013577432137287</v>
+      </c>
+      <c r="E22">
+        <v>0.9773481634156609</v>
+      </c>
+      <c r="F22">
+        <v>0.970282545375234</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.035905613069623</v>
+      </c>
+      <c r="J22">
+        <v>0.9968310065296392</v>
+      </c>
+      <c r="K22">
+        <v>1.02888463206121</v>
+      </c>
+      <c r="L22">
+        <v>0.9933821214124883</v>
+      </c>
+      <c r="M22">
+        <v>0.9864666279575877</v>
+      </c>
+      <c r="N22">
+        <v>1.002227294191235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9669441756141257</v>
+      </c>
+      <c r="D23">
+        <v>1.014865919058878</v>
+      </c>
+      <c r="E23">
+        <v>0.97934804915146</v>
+      </c>
+      <c r="F23">
+        <v>0.9730573527655717</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.036766004601931</v>
+      </c>
+      <c r="J23">
+        <v>0.9985092920689991</v>
+      </c>
+      <c r="K23">
+        <v>1.029842393133562</v>
+      </c>
+      <c r="L23">
+        <v>0.9950174428460112</v>
+      </c>
+      <c r="M23">
+        <v>0.9888564406170163</v>
+      </c>
+      <c r="N23">
+        <v>1.002806986101185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9764740384265712</v>
+      </c>
+      <c r="D24">
+        <v>1.019806836555061</v>
+      </c>
+      <c r="E24">
+        <v>0.9870009117178407</v>
+      </c>
+      <c r="F24">
+        <v>0.9836498679286066</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.040029011883163</v>
+      </c>
+      <c r="J24">
+        <v>1.004908775509985</v>
+      </c>
+      <c r="K24">
+        <v>1.033494826620757</v>
+      </c>
+      <c r="L24">
+        <v>1.001260217410642</v>
+      </c>
+      <c r="M24">
+        <v>0.9979703257930319</v>
+      </c>
+      <c r="N24">
+        <v>1.005016993659109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9869705298443199</v>
+      </c>
+      <c r="D25">
+        <v>1.025289972994286</v>
+      </c>
+      <c r="E25">
+        <v>0.9954685194820164</v>
+      </c>
+      <c r="F25">
+        <v>0.9953252309538679</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.04357845361669</v>
+      </c>
+      <c r="J25">
+        <v>1.011944487178086</v>
+      </c>
+      <c r="K25">
+        <v>1.037507981859191</v>
+      </c>
+      <c r="L25">
+        <v>1.008137590524212</v>
+      </c>
+      <c r="M25">
+        <v>1.007996552764562</v>
+      </c>
+      <c r="N25">
+        <v>1.007445350851208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9949429719555171</v>
+        <v>1.02897389898027</v>
       </c>
       <c r="D2">
-        <v>1.029480932566265</v>
+        <v>1.034483830102144</v>
       </c>
       <c r="E2">
-        <v>1.001927286292934</v>
+        <v>1.028851601151779</v>
       </c>
       <c r="F2">
-        <v>1.004201317990375</v>
+        <v>1.039863569151429</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04623603990559</v>
+        <v>1.03715600899761</v>
       </c>
       <c r="J2">
-        <v>1.017275997148598</v>
+        <v>1.034123246083551</v>
       </c>
       <c r="K2">
-        <v>1.040544279209123</v>
+        <v>1.03728317289389</v>
       </c>
       <c r="L2">
-        <v>1.013359836100291</v>
+        <v>1.031667215805606</v>
       </c>
       <c r="M2">
-        <v>1.015602430455278</v>
+        <v>1.042647548265821</v>
       </c>
       <c r="N2">
-        <v>1.009283944893394</v>
+        <v>1.015312658946308</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000523353298544</v>
+        <v>1.030109619414863</v>
       </c>
       <c r="D3">
-        <v>1.032426766172063</v>
+        <v>1.035071185316288</v>
       </c>
       <c r="E3">
-        <v>1.006462457605829</v>
+        <v>1.029821787742673</v>
       </c>
       <c r="F3">
-        <v>1.010419626272964</v>
+        <v>1.041198361270484</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048072808892865</v>
+        <v>1.037450762013082</v>
       </c>
       <c r="J3">
-        <v>1.020999761335873</v>
+        <v>1.034898849031676</v>
       </c>
       <c r="K3">
-        <v>1.042660893933646</v>
+        <v>1.037680316524502</v>
       </c>
       <c r="L3">
-        <v>1.017013312512174</v>
+        <v>1.032444987654023</v>
       </c>
       <c r="M3">
-        <v>1.020920899617541</v>
+        <v>1.04379126516131</v>
       </c>
       <c r="N3">
-        <v>1.010566978770766</v>
+        <v>1.015575590033475</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004044742559801</v>
+        <v>1.030844168367823</v>
       </c>
       <c r="D4">
-        <v>1.034290507574424</v>
+        <v>1.035451031780925</v>
       </c>
       <c r="E4">
-        <v>1.009330458431245</v>
+        <v>1.030449608331414</v>
       </c>
       <c r="F4">
-        <v>1.01434625908113</v>
+        <v>1.042061959795502</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049220625184757</v>
+        <v>1.03763994703523</v>
       </c>
       <c r="J4">
-        <v>1.023345546276311</v>
+        <v>1.0353998633757</v>
       </c>
       <c r="K4">
-        <v>1.043991968124828</v>
+        <v>1.037936385556385</v>
       </c>
       <c r="L4">
-        <v>1.01931756240258</v>
+        <v>1.032947690914953</v>
       </c>
       <c r="M4">
-        <v>1.024274566769006</v>
+        <v>1.04453069046437</v>
       </c>
       <c r="N4">
-        <v>1.011374637646756</v>
+        <v>1.015745284442494</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005504658554073</v>
+        <v>1.031152893413881</v>
       </c>
       <c r="D5">
-        <v>1.035064223608408</v>
+        <v>1.035610667839212</v>
       </c>
       <c r="E5">
-        <v>1.010520908392689</v>
+        <v>1.030713555536255</v>
       </c>
       <c r="F5">
-        <v>1.015974855196422</v>
+        <v>1.042424994857565</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049693737428403</v>
+        <v>1.037719111911104</v>
       </c>
       <c r="J5">
-        <v>1.024317067587937</v>
+        <v>1.035610286530234</v>
       </c>
       <c r="K5">
-        <v>1.044542633987294</v>
+        <v>1.038043818991152</v>
       </c>
       <c r="L5">
-        <v>1.02027253422231</v>
+        <v>1.033158892289576</v>
       </c>
       <c r="M5">
-        <v>1.025664362145144</v>
+        <v>1.044841394666026</v>
       </c>
       <c r="N5">
-        <v>1.011708983363329</v>
+        <v>1.015816518916882</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005748610573056</v>
+        <v>1.031204725102187</v>
       </c>
       <c r="D6">
-        <v>1.035193569049082</v>
+        <v>1.035637468400601</v>
       </c>
       <c r="E6">
-        <v>1.010719914347401</v>
+        <v>1.030757874122669</v>
       </c>
       <c r="F6">
-        <v>1.01624703391942</v>
+        <v>1.042485948837975</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049772630816281</v>
+        <v>1.037732382436814</v>
       </c>
       <c r="J6">
-        <v>1.024479348483235</v>
+        <v>1.035645605608092</v>
       </c>
       <c r="K6">
-        <v>1.044634578732379</v>
+        <v>1.038061844747067</v>
       </c>
       <c r="L6">
-        <v>1.020432088947004</v>
+        <v>1.033194346028951</v>
       </c>
       <c r="M6">
-        <v>1.025896562617441</v>
+        <v>1.044893554521074</v>
       </c>
       <c r="N6">
-        <v>1.011764822595205</v>
+        <v>1.015828473343374</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00406432927643</v>
+        <v>1.030848293876712</v>
       </c>
       <c r="D7">
-        <v>1.034300884065661</v>
+        <v>1.035453165048634</v>
       </c>
       <c r="E7">
-        <v>1.00934642436963</v>
+        <v>1.030453135161157</v>
       </c>
       <c r="F7">
-        <v>1.014368106175254</v>
+        <v>1.042066810770172</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049226983586348</v>
+        <v>1.037641006287984</v>
       </c>
       <c r="J7">
-        <v>1.023358584561157</v>
+        <v>1.035402675857876</v>
       </c>
       <c r="K7">
-        <v>1.043999360801772</v>
+        <v>1.037937821944076</v>
       </c>
       <c r="L7">
-        <v>1.01933037601101</v>
+        <v>1.032950513527952</v>
       </c>
       <c r="M7">
-        <v>1.024293215037456</v>
+        <v>1.044534842696715</v>
       </c>
       <c r="N7">
-        <v>1.01137912533883</v>
+        <v>1.015746236693596</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9968480085177275</v>
+        <v>1.029357791997296</v>
       </c>
       <c r="D8">
-        <v>1.03048549110313</v>
+        <v>1.034682372930811</v>
       </c>
       <c r="E8">
-        <v>1.003474171258377</v>
+        <v>1.029179471335095</v>
       </c>
       <c r="F8">
-        <v>1.006323581001115</v>
+        <v>1.04031469084993</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046865406014171</v>
+        <v>1.037255941091551</v>
       </c>
       <c r="J8">
-        <v>1.01854804011781</v>
+        <v>1.034385541782976</v>
       </c>
       <c r="K8">
-        <v>1.041267763149784</v>
+        <v>1.037417577596221</v>
       </c>
       <c r="L8">
-        <v>1.014607287444868</v>
+        <v>1.031930185292506</v>
       </c>
       <c r="M8">
-        <v>1.017418571298853</v>
+        <v>1.043034205679076</v>
       </c>
       <c r="N8">
-        <v>1.009722348654395</v>
+        <v>1.015401608867983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9834004675042798</v>
+        <v>1.026728675158388</v>
       </c>
       <c r="D9">
-        <v>1.0234204526802</v>
+        <v>1.033322549476359</v>
       </c>
       <c r="E9">
-        <v>0.9925839624345796</v>
+        <v>1.026935427366159</v>
       </c>
       <c r="F9">
-        <v>0.9913529972169782</v>
+        <v>1.037226345128282</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042377121987907</v>
+        <v>1.036565606372323</v>
       </c>
       <c r="J9">
-        <v>1.009553329884992</v>
+        <v>1.03258665312403</v>
       </c>
       <c r="K9">
-        <v>1.036144643195835</v>
+        <v>1.036493886251125</v>
       </c>
       <c r="L9">
-        <v>1.005798516618291</v>
+        <v>1.030127861279484</v>
       </c>
       <c r="M9">
-        <v>1.004587941424144</v>
+        <v>1.040384927593377</v>
       </c>
       <c r="N9">
-        <v>1.006620266358641</v>
+        <v>1.014790955480023</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9738732545243889</v>
+        <v>1.024974036753266</v>
       </c>
       <c r="D10">
-        <v>1.018454766208925</v>
+        <v>1.032414972792378</v>
       </c>
       <c r="E10">
-        <v>0.9849090902599258</v>
+        <v>1.025439564438779</v>
       </c>
       <c r="F10">
-        <v>0.9807584788316698</v>
+        <v>1.035166693979699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039141958642875</v>
+        <v>1.036097437732883</v>
       </c>
       <c r="J10">
-        <v>1.003163231399403</v>
+        <v>1.031382921715119</v>
       </c>
       <c r="K10">
-        <v>1.032498621343328</v>
+        <v>1.035873429337752</v>
       </c>
       <c r="L10">
-        <v>0.999556268326925</v>
+        <v>1.028923323441354</v>
       </c>
       <c r="M10">
-        <v>0.9954840583039457</v>
+        <v>1.038615272502682</v>
       </c>
       <c r="N10">
-        <v>1.004414270886507</v>
+        <v>1.014381571193819</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9695968267425515</v>
+        <v>1.024213785812224</v>
       </c>
       <c r="D11">
-        <v>1.016237494177741</v>
+        <v>1.032021746347624</v>
       </c>
       <c r="E11">
-        <v>0.9814749092350283</v>
+        <v>1.024791867832074</v>
       </c>
       <c r="F11">
-        <v>0.9760052286250043</v>
+        <v>1.034274627567653</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037677648171496</v>
+        <v>1.035892827893907</v>
       </c>
       <c r="J11">
-        <v>1.000291487658251</v>
+        <v>1.030860618729799</v>
       </c>
       <c r="K11">
-        <v>1.030859556896513</v>
+        <v>1.03560366087822</v>
       </c>
       <c r="L11">
-        <v>0.9967548468231497</v>
+        <v>1.028401025256901</v>
       </c>
       <c r="M11">
-        <v>0.9913942956475662</v>
+        <v>1.037848139173017</v>
       </c>
       <c r="N11">
-        <v>1.003422530081023</v>
+        <v>1.014203758849995</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9679839897892368</v>
+        <v>1.023931320342681</v>
       </c>
       <c r="D12">
-        <v>1.015403212631688</v>
+        <v>1.031875649103376</v>
       </c>
       <c r="E12">
-        <v>0.9801814529065525</v>
+        <v>1.024551286725158</v>
       </c>
       <c r="F12">
-        <v>0.9742128472545004</v>
+        <v>1.033943237559334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037123651141763</v>
+        <v>1.035816542437038</v>
       </c>
       <c r="J12">
-        <v>0.9992079682960281</v>
+        <v>1.030666448750933</v>
       </c>
       <c r="K12">
-        <v>1.03024114382485</v>
+        <v>1.03550329071866</v>
       </c>
       <c r="L12">
-        <v>0.9956984561711842</v>
+        <v>1.028206910424781</v>
       </c>
       <c r="M12">
-        <v>0.9898513447662717</v>
+        <v>1.037563059642641</v>
       </c>
       <c r="N12">
-        <v>1.003048304004102</v>
+        <v>1.014137629048524</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9683310809485546</v>
+        <v>1.02399191354725</v>
       </c>
       <c r="D13">
-        <v>1.015582662877956</v>
+        <v>1.031906989052382</v>
       </c>
       <c r="E13">
-        <v>0.9804597316540655</v>
+        <v>1.024602892104167</v>
       </c>
       <c r="F13">
-        <v>0.9745985652535633</v>
+        <v>1.034014323558716</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037242951293803</v>
+        <v>1.035832918795048</v>
       </c>
       <c r="J13">
-        <v>0.9994411668277564</v>
+        <v>1.030708106284386</v>
       </c>
       <c r="K13">
-        <v>1.030374238631967</v>
+        <v>1.035524827975347</v>
       </c>
       <c r="L13">
-        <v>0.9959257888397037</v>
+        <v>1.028248553711359</v>
       </c>
       <c r="M13">
-        <v>0.9901834194614997</v>
+        <v>1.037624216188857</v>
       </c>
       <c r="N13">
-        <v>1.003128847650518</v>
+        <v>1.014151817848332</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9694640168318402</v>
+        <v>1.024190438659087</v>
       </c>
       <c r="D14">
-        <v>1.016168753947803</v>
+        <v>1.032009670623336</v>
       </c>
       <c r="E14">
-        <v>0.9813683630975925</v>
+        <v>1.024771981282841</v>
       </c>
       <c r="F14">
-        <v>0.9758576285203866</v>
+        <v>1.034247235535861</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037632063757516</v>
+        <v>1.035886527914899</v>
       </c>
       <c r="J14">
-        <v>1.000202273488287</v>
+        <v>1.030844571919145</v>
       </c>
       <c r="K14">
-        <v>1.030808637588448</v>
+        <v>1.035595367638215</v>
       </c>
       <c r="L14">
-        <v>0.9966678541833011</v>
+        <v>1.02838498191505</v>
       </c>
       <c r="M14">
-        <v>0.9912672510420392</v>
+        <v>1.037824577119639</v>
       </c>
       <c r="N14">
-        <v>1.003391717975888</v>
+        <v>1.014198294222318</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9701587721044477</v>
+        <v>1.024312746606405</v>
       </c>
       <c r="D15">
-        <v>1.016528428621309</v>
+        <v>1.032072931450086</v>
       </c>
       <c r="E15">
-        <v>0.9819257984175567</v>
+        <v>1.024876162973565</v>
       </c>
       <c r="F15">
-        <v>0.9766297656313478</v>
+        <v>1.034390735316983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037870454751198</v>
+        <v>1.035919520586464</v>
       </c>
       <c r="J15">
-        <v>1.00066895265926</v>
+        <v>1.030928631212211</v>
       </c>
       <c r="K15">
-        <v>1.03107499743824</v>
+        <v>1.035638807440036</v>
       </c>
       <c r="L15">
-        <v>0.9971229368657567</v>
+        <v>1.028469025222184</v>
       </c>
       <c r="M15">
-        <v>0.9919318258644192</v>
+        <v>1.037948008522331</v>
       </c>
       <c r="N15">
-        <v>1.003552894560734</v>
+        <v>1.014226918924718</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9741537439122696</v>
+        <v>1.02502448178705</v>
       </c>
       <c r="D16">
-        <v>1.018600454999543</v>
+        <v>1.032441064935389</v>
       </c>
       <c r="E16">
-        <v>0.9851345701424421</v>
+        <v>1.025482550302446</v>
       </c>
       <c r="F16">
-        <v>0.9810702854293868</v>
+        <v>1.035225892500784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039237757060466</v>
+        <v>1.03611097717051</v>
       </c>
       <c r="J16">
-        <v>1.003351521758006</v>
+        <v>1.031417562398279</v>
       </c>
       <c r="K16">
-        <v>1.03260608579504</v>
+        <v>1.035891309677504</v>
       </c>
       <c r="L16">
-        <v>0.9997400294745638</v>
+        <v>1.02895797127946</v>
       </c>
       <c r="M16">
-        <v>0.9957522339609444</v>
+        <v>1.038666166244802</v>
       </c>
       <c r="N16">
-        <v>1.004479289770823</v>
+        <v>1.014393360478067</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9766180979858021</v>
+        <v>1.025470804177143</v>
       </c>
       <c r="D17">
-        <v>1.019881806878437</v>
+        <v>1.032671921573227</v>
       </c>
       <c r="E17">
-        <v>0.9871168517290417</v>
+        <v>1.025862926188018</v>
       </c>
       <c r="F17">
-        <v>0.9838100394307874</v>
+        <v>1.03574970235314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040078065112524</v>
+        <v>1.036230566653391</v>
       </c>
       <c r="J17">
-        <v>1.005005439520588</v>
+        <v>1.031723966173679</v>
       </c>
       <c r="K17">
-        <v>1.033549990587985</v>
+        <v>1.03604940148565</v>
       </c>
       <c r="L17">
-        <v>1.001354603933387</v>
+        <v>1.029264479283668</v>
       </c>
       <c r="M17">
-        <v>0.9981080197559513</v>
+        <v>1.039116415194807</v>
       </c>
       <c r="N17">
-        <v>1.005050368619753</v>
+        <v>1.014497618401817</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9780410589103355</v>
+        <v>1.025731090218726</v>
       </c>
       <c r="D18">
-        <v>1.020622767717609</v>
+        <v>1.032806553173032</v>
       </c>
       <c r="E18">
-        <v>0.9882624675900277</v>
+        <v>1.026084795191055</v>
       </c>
       <c r="F18">
-        <v>0.9853922374551661</v>
+        <v>1.036055210391854</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040562119285805</v>
+        <v>1.03630013886721</v>
       </c>
       <c r="J18">
-        <v>1.005960109614862</v>
+        <v>1.031902582254357</v>
       </c>
       <c r="K18">
-        <v>1.034094773314818</v>
+        <v>1.036141506992996</v>
       </c>
       <c r="L18">
-        <v>1.002286929349749</v>
+        <v>1.029443190302036</v>
       </c>
       <c r="M18">
-        <v>0.9994679756653717</v>
+        <v>1.039378954897585</v>
       </c>
       <c r="N18">
-        <v>1.005379970785704</v>
+        <v>1.014558377601097</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9785238484273774</v>
+        <v>1.025819833252203</v>
       </c>
       <c r="D19">
-        <v>1.020874343122789</v>
+        <v>1.032852455121156</v>
       </c>
       <c r="E19">
-        <v>0.9886513266126389</v>
+        <v>1.026160447189531</v>
       </c>
       <c r="F19">
-        <v>0.9859290918935986</v>
+        <v>1.036159377207437</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04072615333685</v>
+        <v>1.03632383028192</v>
       </c>
       <c r="J19">
-        <v>1.00628395700629</v>
+        <v>1.031963468109531</v>
       </c>
       <c r="K19">
-        <v>1.034279564893417</v>
+        <v>1.036172894477653</v>
       </c>
       <c r="L19">
-        <v>1.00260325841562</v>
+        <v>1.02950411431423</v>
       </c>
       <c r="M19">
-        <v>0.9999293352168391</v>
+        <v>1.039468460173643</v>
       </c>
       <c r="N19">
-        <v>1.005491773611729</v>
+        <v>1.014579085991284</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9763552029132828</v>
+        <v>1.025422922808598</v>
       </c>
       <c r="D20">
-        <v>1.019744999250529</v>
+        <v>1.032647155233183</v>
       </c>
       <c r="E20">
-        <v>0.9869052778890863</v>
+        <v>1.025822115236698</v>
       </c>
       <c r="F20">
-        <v>0.9835177428184514</v>
+        <v>1.035693504747965</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039988541058127</v>
+        <v>1.036217754693029</v>
       </c>
       <c r="J20">
-        <v>1.004829034959839</v>
+        <v>1.031691102720232</v>
       </c>
       <c r="K20">
-        <v>1.033449320163198</v>
+        <v>1.036032450773674</v>
       </c>
       <c r="L20">
-        <v>1.001182357682447</v>
+        <v>1.02923160111462</v>
       </c>
       <c r="M20">
-        <v>0.9978567395075302</v>
+        <v>1.039068116336661</v>
       </c>
       <c r="N20">
-        <v>1.004989461625443</v>
+        <v>1.0144864379648</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9691310828485357</v>
+        <v>1.024131980033536</v>
       </c>
       <c r="D21">
-        <v>1.015996464936266</v>
+        <v>1.031979434433466</v>
       </c>
       <c r="E21">
-        <v>0.9811012965871566</v>
+        <v>1.0247221886804</v>
       </c>
       <c r="F21">
-        <v>0.975487622236585</v>
+        <v>1.034178649805947</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037517762987474</v>
+        <v>1.0358707492148</v>
       </c>
       <c r="J21">
-        <v>0.999978620249202</v>
+        <v>1.030804390711472</v>
       </c>
       <c r="K21">
-        <v>1.030680987207735</v>
+        <v>1.035574600051223</v>
       </c>
       <c r="L21">
-        <v>0.9964497797907776</v>
+        <v>1.028344810255349</v>
       </c>
       <c r="M21">
-        <v>0.9909487614809857</v>
+        <v>1.037765579486487</v>
       </c>
       <c r="N21">
-        <v>1.003314473765997</v>
+        <v>1.014184610365183</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9644469696489525</v>
+        <v>1.023319881425939</v>
       </c>
       <c r="D22">
-        <v>1.013577432137287</v>
+        <v>1.031559407135922</v>
       </c>
       <c r="E22">
-        <v>0.9773481634156609</v>
+        <v>1.024030633704437</v>
       </c>
       <c r="F22">
-        <v>0.970282545375234</v>
+        <v>1.033225985742812</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035905613069623</v>
+        <v>1.035650928329072</v>
       </c>
       <c r="J22">
-        <v>0.9968310065296392</v>
+        <v>1.030245933710849</v>
       </c>
       <c r="K22">
-        <v>1.02888463206121</v>
+        <v>1.035285769927054</v>
       </c>
       <c r="L22">
-        <v>0.9933821214124883</v>
+        <v>1.027786612512488</v>
       </c>
       <c r="M22">
-        <v>0.9864666279575877</v>
+        <v>1.036945857497495</v>
       </c>
       <c r="N22">
-        <v>1.002227294191235</v>
+        <v>1.013994362592594</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9669441756141257</v>
+        <v>1.02375043190355</v>
       </c>
       <c r="D23">
-        <v>1.014865919058878</v>
+        <v>1.03178209076657</v>
       </c>
       <c r="E23">
-        <v>0.97934804915146</v>
+        <v>1.024397239246001</v>
       </c>
       <c r="F23">
-        <v>0.9730573527655717</v>
+        <v>1.033731032400765</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036766004601931</v>
+        <v>1.035767615560137</v>
       </c>
       <c r="J23">
-        <v>0.9985092920689991</v>
+        <v>1.030542072414522</v>
       </c>
       <c r="K23">
-        <v>1.029842393133562</v>
+        <v>1.035438975319969</v>
       </c>
       <c r="L23">
-        <v>0.9950174428460112</v>
+        <v>1.02808258444446</v>
       </c>
       <c r="M23">
-        <v>0.9888564406170163</v>
+        <v>1.037380481086424</v>
       </c>
       <c r="N23">
-        <v>1.002806986101185</v>
+        <v>1.014095261834897</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9764740384265712</v>
+        <v>1.025444558480364</v>
       </c>
       <c r="D24">
-        <v>1.019806836555061</v>
+        <v>1.032658346147779</v>
       </c>
       <c r="E24">
-        <v>0.9870009117178407</v>
+        <v>1.025840555941821</v>
       </c>
       <c r="F24">
-        <v>0.9836498679286066</v>
+        <v>1.035718898092019</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040029011883163</v>
+        <v>1.036223544429583</v>
       </c>
       <c r="J24">
-        <v>1.004908775509985</v>
+        <v>1.031705952621399</v>
       </c>
       <c r="K24">
-        <v>1.033494826620757</v>
+        <v>1.036040110400603</v>
       </c>
       <c r="L24">
-        <v>1.001260217410642</v>
+        <v>1.029246457559679</v>
       </c>
       <c r="M24">
-        <v>0.9979703257930319</v>
+        <v>1.039089940767075</v>
       </c>
       <c r="N24">
-        <v>1.005016993659109</v>
+        <v>1.014491490085706</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9869705298443199</v>
+        <v>1.027408691038696</v>
       </c>
       <c r="D25">
-        <v>1.025289972994286</v>
+        <v>1.033674280527333</v>
       </c>
       <c r="E25">
-        <v>0.9954685194820164</v>
+        <v>1.027515533869259</v>
       </c>
       <c r="F25">
-        <v>0.9953252309538679</v>
+        <v>1.038024877817695</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04357845361669</v>
+        <v>1.036745474040773</v>
       </c>
       <c r="J25">
-        <v>1.011944487178086</v>
+        <v>1.03305249310478</v>
       </c>
       <c r="K25">
-        <v>1.037507981859191</v>
+        <v>1.036733505362862</v>
       </c>
       <c r="L25">
-        <v>1.008137590524212</v>
+        <v>1.030594328528809</v>
       </c>
       <c r="M25">
-        <v>1.007996552764562</v>
+        <v>1.041070431319842</v>
       </c>
       <c r="N25">
-        <v>1.007445350851208</v>
+        <v>1.014949225294658</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02897389898027</v>
+        <v>0.9949429719555173</v>
       </c>
       <c r="D2">
-        <v>1.034483830102144</v>
+        <v>1.029480932566266</v>
       </c>
       <c r="E2">
-        <v>1.028851601151779</v>
+        <v>1.001927286292934</v>
       </c>
       <c r="F2">
-        <v>1.039863569151429</v>
+        <v>1.004201317990376</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03715600899761</v>
+        <v>1.046236039905591</v>
       </c>
       <c r="J2">
-        <v>1.034123246083551</v>
+        <v>1.017275997148598</v>
       </c>
       <c r="K2">
-        <v>1.03728317289389</v>
+        <v>1.040544279209124</v>
       </c>
       <c r="L2">
-        <v>1.031667215805606</v>
+        <v>1.013359836100291</v>
       </c>
       <c r="M2">
-        <v>1.042647548265821</v>
+        <v>1.015602430455279</v>
       </c>
       <c r="N2">
-        <v>1.015312658946308</v>
+        <v>1.009283944893394</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030109619414863</v>
+        <v>1.000523353298545</v>
       </c>
       <c r="D3">
-        <v>1.035071185316288</v>
+        <v>1.032426766172064</v>
       </c>
       <c r="E3">
-        <v>1.029821787742673</v>
+        <v>1.00646245760583</v>
       </c>
       <c r="F3">
-        <v>1.041198361270484</v>
+        <v>1.010419626272965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037450762013082</v>
+        <v>1.048072808892866</v>
       </c>
       <c r="J3">
-        <v>1.034898849031676</v>
+        <v>1.020999761335873</v>
       </c>
       <c r="K3">
-        <v>1.037680316524502</v>
+        <v>1.042660893933647</v>
       </c>
       <c r="L3">
-        <v>1.032444987654023</v>
+        <v>1.017013312512174</v>
       </c>
       <c r="M3">
-        <v>1.04379126516131</v>
+        <v>1.020920899617542</v>
       </c>
       <c r="N3">
-        <v>1.015575590033475</v>
+        <v>1.010566978770766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030844168367823</v>
+        <v>1.004044742559802</v>
       </c>
       <c r="D4">
-        <v>1.035451031780925</v>
+        <v>1.034290507574424</v>
       </c>
       <c r="E4">
-        <v>1.030449608331414</v>
+        <v>1.009330458431245</v>
       </c>
       <c r="F4">
-        <v>1.042061959795502</v>
+        <v>1.014346259081131</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03763994703523</v>
+        <v>1.049220625184756</v>
       </c>
       <c r="J4">
-        <v>1.0353998633757</v>
+        <v>1.023345546276311</v>
       </c>
       <c r="K4">
-        <v>1.037936385556385</v>
+        <v>1.043991968124828</v>
       </c>
       <c r="L4">
-        <v>1.032947690914953</v>
+        <v>1.019317562402581</v>
       </c>
       <c r="M4">
-        <v>1.04453069046437</v>
+        <v>1.024274566769006</v>
       </c>
       <c r="N4">
-        <v>1.015745284442494</v>
+        <v>1.011374637646756</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031152893413881</v>
+        <v>1.005504658554075</v>
       </c>
       <c r="D5">
-        <v>1.035610667839212</v>
+        <v>1.035064223608408</v>
       </c>
       <c r="E5">
-        <v>1.030713555536255</v>
+        <v>1.01052090839269</v>
       </c>
       <c r="F5">
-        <v>1.042424994857565</v>
+        <v>1.015974855196423</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037719111911104</v>
+        <v>1.049693737428404</v>
       </c>
       <c r="J5">
-        <v>1.035610286530234</v>
+        <v>1.024317067587938</v>
       </c>
       <c r="K5">
-        <v>1.038043818991152</v>
+        <v>1.044542633987294</v>
       </c>
       <c r="L5">
-        <v>1.033158892289576</v>
+        <v>1.020272534222311</v>
       </c>
       <c r="M5">
-        <v>1.044841394666026</v>
+        <v>1.025664362145145</v>
       </c>
       <c r="N5">
-        <v>1.015816518916882</v>
+        <v>1.01170898336333</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031204725102187</v>
+        <v>1.005748610573055</v>
       </c>
       <c r="D6">
-        <v>1.035637468400601</v>
+        <v>1.035193569049082</v>
       </c>
       <c r="E6">
-        <v>1.030757874122669</v>
+        <v>1.0107199143474</v>
       </c>
       <c r="F6">
-        <v>1.042485948837975</v>
+        <v>1.016247033919418</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037732382436814</v>
+        <v>1.04977263081628</v>
       </c>
       <c r="J6">
-        <v>1.035645605608092</v>
+        <v>1.024479348483234</v>
       </c>
       <c r="K6">
-        <v>1.038061844747067</v>
+        <v>1.044634578732379</v>
       </c>
       <c r="L6">
-        <v>1.033194346028951</v>
+        <v>1.020432088947003</v>
       </c>
       <c r="M6">
-        <v>1.044893554521074</v>
+        <v>1.02589656261744</v>
       </c>
       <c r="N6">
-        <v>1.015828473343374</v>
+        <v>1.011764822595205</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030848293876712</v>
+        <v>1.00406432927643</v>
       </c>
       <c r="D7">
-        <v>1.035453165048634</v>
+        <v>1.034300884065661</v>
       </c>
       <c r="E7">
-        <v>1.030453135161157</v>
+        <v>1.00934642436963</v>
       </c>
       <c r="F7">
-        <v>1.042066810770172</v>
+        <v>1.014368106175254</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037641006287984</v>
+        <v>1.049226983586347</v>
       </c>
       <c r="J7">
-        <v>1.035402675857876</v>
+        <v>1.023358584561157</v>
       </c>
       <c r="K7">
-        <v>1.037937821944076</v>
+        <v>1.043999360801772</v>
       </c>
       <c r="L7">
-        <v>1.032950513527952</v>
+        <v>1.019330376011009</v>
       </c>
       <c r="M7">
-        <v>1.044534842696715</v>
+        <v>1.024293215037456</v>
       </c>
       <c r="N7">
-        <v>1.015746236693596</v>
+        <v>1.01137912533883</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029357791997296</v>
+        <v>0.996848008517727</v>
       </c>
       <c r="D8">
-        <v>1.034682372930811</v>
+        <v>1.030485491103131</v>
       </c>
       <c r="E8">
-        <v>1.029179471335095</v>
+        <v>1.003474171258377</v>
       </c>
       <c r="F8">
-        <v>1.04031469084993</v>
+        <v>1.006323581001114</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037255941091551</v>
+        <v>1.046865406014171</v>
       </c>
       <c r="J8">
-        <v>1.034385541782976</v>
+        <v>1.018548040117809</v>
       </c>
       <c r="K8">
-        <v>1.037417577596221</v>
+        <v>1.041267763149784</v>
       </c>
       <c r="L8">
-        <v>1.031930185292506</v>
+        <v>1.014607287444867</v>
       </c>
       <c r="M8">
-        <v>1.043034205679076</v>
+        <v>1.017418571298853</v>
       </c>
       <c r="N8">
-        <v>1.015401608867983</v>
+        <v>1.009722348654395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026728675158388</v>
+        <v>0.9834004675042798</v>
       </c>
       <c r="D9">
-        <v>1.033322549476359</v>
+        <v>1.0234204526802</v>
       </c>
       <c r="E9">
-        <v>1.026935427366159</v>
+        <v>0.9925839624345791</v>
       </c>
       <c r="F9">
-        <v>1.037226345128282</v>
+        <v>0.9913529972169781</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036565606372323</v>
+        <v>1.042377121987908</v>
       </c>
       <c r="J9">
-        <v>1.03258665312403</v>
+        <v>1.009553329884992</v>
       </c>
       <c r="K9">
-        <v>1.036493886251125</v>
+        <v>1.036144643195835</v>
       </c>
       <c r="L9">
-        <v>1.030127861279484</v>
+        <v>1.005798516618291</v>
       </c>
       <c r="M9">
-        <v>1.040384927593377</v>
+        <v>1.004587941424144</v>
       </c>
       <c r="N9">
-        <v>1.014790955480023</v>
+        <v>1.006620266358641</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024974036753266</v>
+        <v>0.9738732545243889</v>
       </c>
       <c r="D10">
-        <v>1.032414972792378</v>
+        <v>1.018454766208925</v>
       </c>
       <c r="E10">
-        <v>1.025439564438779</v>
+        <v>0.9849090902599256</v>
       </c>
       <c r="F10">
-        <v>1.035166693979699</v>
+        <v>0.9807584788316698</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036097437732883</v>
+        <v>1.039141958642875</v>
       </c>
       <c r="J10">
-        <v>1.031382921715119</v>
+        <v>1.003163231399403</v>
       </c>
       <c r="K10">
-        <v>1.035873429337752</v>
+        <v>1.032498621343328</v>
       </c>
       <c r="L10">
-        <v>1.028923323441354</v>
+        <v>0.9995562683269248</v>
       </c>
       <c r="M10">
-        <v>1.038615272502682</v>
+        <v>0.9954840583039457</v>
       </c>
       <c r="N10">
-        <v>1.014381571193819</v>
+        <v>1.004414270886507</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024213785812224</v>
+        <v>0.9695968267425514</v>
       </c>
       <c r="D11">
-        <v>1.032021746347624</v>
+        <v>1.016237494177741</v>
       </c>
       <c r="E11">
-        <v>1.024791867832074</v>
+        <v>0.9814749092350282</v>
       </c>
       <c r="F11">
-        <v>1.034274627567653</v>
+        <v>0.9760052286250043</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035892827893907</v>
+        <v>1.037677648171495</v>
       </c>
       <c r="J11">
-        <v>1.030860618729799</v>
+        <v>1.000291487658251</v>
       </c>
       <c r="K11">
-        <v>1.03560366087822</v>
+        <v>1.030859556896513</v>
       </c>
       <c r="L11">
-        <v>1.028401025256901</v>
+        <v>0.9967548468231496</v>
       </c>
       <c r="M11">
-        <v>1.037848139173017</v>
+        <v>0.991394295647566</v>
       </c>
       <c r="N11">
-        <v>1.014203758849995</v>
+        <v>1.003422530081023</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023931320342681</v>
+        <v>0.9679839897892375</v>
       </c>
       <c r="D12">
-        <v>1.031875649103376</v>
+        <v>1.015403212631688</v>
       </c>
       <c r="E12">
-        <v>1.024551286725158</v>
+        <v>0.9801814529065532</v>
       </c>
       <c r="F12">
-        <v>1.033943237559334</v>
+        <v>0.9742128472545014</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035816542437038</v>
+        <v>1.037123651141763</v>
       </c>
       <c r="J12">
-        <v>1.030666448750933</v>
+        <v>0.9992079682960291</v>
       </c>
       <c r="K12">
-        <v>1.03550329071866</v>
+        <v>1.03024114382485</v>
       </c>
       <c r="L12">
-        <v>1.028206910424781</v>
+        <v>0.9956984561711851</v>
       </c>
       <c r="M12">
-        <v>1.037563059642641</v>
+        <v>0.9898513447662726</v>
       </c>
       <c r="N12">
-        <v>1.014137629048524</v>
+        <v>1.003048304004102</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02399191354725</v>
+        <v>0.9683310809485549</v>
       </c>
       <c r="D13">
-        <v>1.031906989052382</v>
+        <v>1.015582662877956</v>
       </c>
       <c r="E13">
-        <v>1.024602892104167</v>
+        <v>0.980459731654066</v>
       </c>
       <c r="F13">
-        <v>1.034014323558716</v>
+        <v>0.9745985652535638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035832918795048</v>
+        <v>1.037242951293803</v>
       </c>
       <c r="J13">
-        <v>1.030708106284386</v>
+        <v>0.9994411668277569</v>
       </c>
       <c r="K13">
-        <v>1.035524827975347</v>
+        <v>1.030374238631968</v>
       </c>
       <c r="L13">
-        <v>1.028248553711359</v>
+        <v>0.9959257888397042</v>
       </c>
       <c r="M13">
-        <v>1.037624216188857</v>
+        <v>0.9901834194615003</v>
       </c>
       <c r="N13">
-        <v>1.014151817848332</v>
+        <v>1.003128847650518</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024190438659087</v>
+        <v>0.9694640168318408</v>
       </c>
       <c r="D14">
-        <v>1.032009670623336</v>
+        <v>1.016168753947803</v>
       </c>
       <c r="E14">
-        <v>1.024771981282841</v>
+        <v>0.9813683630975928</v>
       </c>
       <c r="F14">
-        <v>1.034247235535861</v>
+        <v>0.9758576285203874</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035886527914899</v>
+        <v>1.037632063757516</v>
       </c>
       <c r="J14">
-        <v>1.030844571919145</v>
+        <v>1.000202273488288</v>
       </c>
       <c r="K14">
-        <v>1.035595367638215</v>
+        <v>1.030808637588448</v>
       </c>
       <c r="L14">
-        <v>1.02838498191505</v>
+        <v>0.9966678541833015</v>
       </c>
       <c r="M14">
-        <v>1.037824577119639</v>
+        <v>0.9912672510420399</v>
       </c>
       <c r="N14">
-        <v>1.014198294222318</v>
+        <v>1.003391717975888</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024312746606405</v>
+        <v>0.9701587721044471</v>
       </c>
       <c r="D15">
-        <v>1.032072931450086</v>
+        <v>1.016528428621309</v>
       </c>
       <c r="E15">
-        <v>1.024876162973565</v>
+        <v>0.981925798417556</v>
       </c>
       <c r="F15">
-        <v>1.034390735316983</v>
+        <v>0.976629765631347</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035919520586464</v>
+        <v>1.037870454751197</v>
       </c>
       <c r="J15">
-        <v>1.030928631212211</v>
+        <v>1.00066895265926</v>
       </c>
       <c r="K15">
-        <v>1.035638807440036</v>
+        <v>1.031074997438239</v>
       </c>
       <c r="L15">
-        <v>1.028469025222184</v>
+        <v>0.997122936865756</v>
       </c>
       <c r="M15">
-        <v>1.037948008522331</v>
+        <v>0.9919318258644182</v>
       </c>
       <c r="N15">
-        <v>1.014226918924718</v>
+        <v>1.003552894560734</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02502448178705</v>
+        <v>0.9741537439122695</v>
       </c>
       <c r="D16">
-        <v>1.032441064935389</v>
+        <v>1.018600454999544</v>
       </c>
       <c r="E16">
-        <v>1.025482550302446</v>
+        <v>0.985134570142442</v>
       </c>
       <c r="F16">
-        <v>1.035225892500784</v>
+        <v>0.9810702854293868</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03611097717051</v>
+        <v>1.039237757060466</v>
       </c>
       <c r="J16">
-        <v>1.031417562398279</v>
+        <v>1.003351521758006</v>
       </c>
       <c r="K16">
-        <v>1.035891309677504</v>
+        <v>1.032606085795041</v>
       </c>
       <c r="L16">
-        <v>1.02895797127946</v>
+        <v>0.9997400294745635</v>
       </c>
       <c r="M16">
-        <v>1.038666166244802</v>
+        <v>0.9957522339609445</v>
       </c>
       <c r="N16">
-        <v>1.014393360478067</v>
+        <v>1.004479289770823</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025470804177143</v>
+        <v>0.9766180979858021</v>
       </c>
       <c r="D17">
-        <v>1.032671921573227</v>
+        <v>1.019881806878437</v>
       </c>
       <c r="E17">
-        <v>1.025862926188018</v>
+        <v>0.987116851729042</v>
       </c>
       <c r="F17">
-        <v>1.03574970235314</v>
+        <v>0.983810039430787</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036230566653391</v>
+        <v>1.040078065112524</v>
       </c>
       <c r="J17">
-        <v>1.031723966173679</v>
+        <v>1.005005439520588</v>
       </c>
       <c r="K17">
-        <v>1.03604940148565</v>
+        <v>1.033549990587985</v>
       </c>
       <c r="L17">
-        <v>1.029264479283668</v>
+        <v>1.001354603933387</v>
       </c>
       <c r="M17">
-        <v>1.039116415194807</v>
+        <v>0.998108019755951</v>
       </c>
       <c r="N17">
-        <v>1.014497618401817</v>
+        <v>1.005050368619753</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025731090218726</v>
+        <v>0.9780410589103349</v>
       </c>
       <c r="D18">
-        <v>1.032806553173032</v>
+        <v>1.020622767717609</v>
       </c>
       <c r="E18">
-        <v>1.026084795191055</v>
+        <v>0.9882624675900272</v>
       </c>
       <c r="F18">
-        <v>1.036055210391854</v>
+        <v>0.9853922374551661</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03630013886721</v>
+        <v>1.040562119285805</v>
       </c>
       <c r="J18">
-        <v>1.031902582254357</v>
+        <v>1.005960109614862</v>
       </c>
       <c r="K18">
-        <v>1.036141506992996</v>
+        <v>1.034094773314818</v>
       </c>
       <c r="L18">
-        <v>1.029443190302036</v>
+        <v>1.002286929349748</v>
       </c>
       <c r="M18">
-        <v>1.039378954897585</v>
+        <v>0.9994679756653715</v>
       </c>
       <c r="N18">
-        <v>1.014558377601097</v>
+        <v>1.005379970785704</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025819833252203</v>
+        <v>0.9785238484273767</v>
       </c>
       <c r="D19">
-        <v>1.032852455121156</v>
+        <v>1.020874343122789</v>
       </c>
       <c r="E19">
-        <v>1.026160447189531</v>
+        <v>0.9886513266126382</v>
       </c>
       <c r="F19">
-        <v>1.036159377207437</v>
+        <v>0.985929091893598</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03632383028192</v>
+        <v>1.04072615333685</v>
       </c>
       <c r="J19">
-        <v>1.031963468109531</v>
+        <v>1.00628395700629</v>
       </c>
       <c r="K19">
-        <v>1.036172894477653</v>
+        <v>1.034279564893417</v>
       </c>
       <c r="L19">
-        <v>1.02950411431423</v>
+        <v>1.002603258415619</v>
       </c>
       <c r="M19">
-        <v>1.039468460173643</v>
+        <v>0.9999293352168386</v>
       </c>
       <c r="N19">
-        <v>1.014579085991284</v>
+        <v>1.005491773611729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025422922808598</v>
+        <v>0.9763552029132826</v>
       </c>
       <c r="D20">
-        <v>1.032647155233183</v>
+        <v>1.019744999250529</v>
       </c>
       <c r="E20">
-        <v>1.025822115236698</v>
+        <v>0.9869052778890857</v>
       </c>
       <c r="F20">
-        <v>1.035693504747965</v>
+        <v>0.9835177428184503</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036217754693029</v>
+        <v>1.039988541058127</v>
       </c>
       <c r="J20">
-        <v>1.031691102720232</v>
+        <v>1.004829034959838</v>
       </c>
       <c r="K20">
-        <v>1.036032450773674</v>
+        <v>1.033449320163198</v>
       </c>
       <c r="L20">
-        <v>1.02923160111462</v>
+        <v>1.001182357682446</v>
       </c>
       <c r="M20">
-        <v>1.039068116336661</v>
+        <v>0.9978567395075291</v>
       </c>
       <c r="N20">
-        <v>1.0144864379648</v>
+        <v>1.004989461625443</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024131980033536</v>
+        <v>0.9691310828485354</v>
       </c>
       <c r="D21">
-        <v>1.031979434433466</v>
+        <v>1.015996464936266</v>
       </c>
       <c r="E21">
-        <v>1.0247221886804</v>
+        <v>0.9811012965871561</v>
       </c>
       <c r="F21">
-        <v>1.034178649805947</v>
+        <v>0.9754876222365847</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0358707492148</v>
+        <v>1.037517762987474</v>
       </c>
       <c r="J21">
-        <v>1.030804390711472</v>
+        <v>0.9999786202492018</v>
       </c>
       <c r="K21">
-        <v>1.035574600051223</v>
+        <v>1.030680987207735</v>
       </c>
       <c r="L21">
-        <v>1.028344810255349</v>
+        <v>0.9964497797907772</v>
       </c>
       <c r="M21">
-        <v>1.037765579486487</v>
+        <v>0.9909487614809852</v>
       </c>
       <c r="N21">
-        <v>1.014184610365183</v>
+        <v>1.003314473765997</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023319881425939</v>
+        <v>0.9644469696489517</v>
       </c>
       <c r="D22">
-        <v>1.031559407135922</v>
+        <v>1.013577432137286</v>
       </c>
       <c r="E22">
-        <v>1.024030633704437</v>
+        <v>0.9773481634156594</v>
       </c>
       <c r="F22">
-        <v>1.033225985742812</v>
+        <v>0.9702825453752333</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035650928329072</v>
+        <v>1.035905613069623</v>
       </c>
       <c r="J22">
-        <v>1.030245933710849</v>
+        <v>0.9968310065296383</v>
       </c>
       <c r="K22">
-        <v>1.035285769927054</v>
+        <v>1.02888463206121</v>
       </c>
       <c r="L22">
-        <v>1.027786612512488</v>
+        <v>0.9933821214124869</v>
       </c>
       <c r="M22">
-        <v>1.036945857497495</v>
+        <v>0.9864666279575869</v>
       </c>
       <c r="N22">
-        <v>1.013994362592594</v>
+        <v>1.002227294191234</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02375043190355</v>
+        <v>0.9669441756141248</v>
       </c>
       <c r="D23">
-        <v>1.03178209076657</v>
+        <v>1.014865919058878</v>
       </c>
       <c r="E23">
-        <v>1.024397239246001</v>
+        <v>0.9793480491514593</v>
       </c>
       <c r="F23">
-        <v>1.033731032400765</v>
+        <v>0.9730573527655711</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035767615560137</v>
+        <v>1.036766004601931</v>
       </c>
       <c r="J23">
-        <v>1.030542072414522</v>
+        <v>0.9985092920689982</v>
       </c>
       <c r="K23">
-        <v>1.035438975319969</v>
+        <v>1.029842393133561</v>
       </c>
       <c r="L23">
-        <v>1.02808258444446</v>
+        <v>0.9950174428460105</v>
       </c>
       <c r="M23">
-        <v>1.037380481086424</v>
+        <v>0.9888564406170158</v>
       </c>
       <c r="N23">
-        <v>1.014095261834897</v>
+        <v>1.002806986101184</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025444558480364</v>
+        <v>0.9764740384265705</v>
       </c>
       <c r="D24">
-        <v>1.032658346147779</v>
+        <v>1.019806836555061</v>
       </c>
       <c r="E24">
-        <v>1.025840555941821</v>
+        <v>0.9870009117178395</v>
       </c>
       <c r="F24">
-        <v>1.035718898092019</v>
+        <v>0.9836498679286061</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036223544429583</v>
+        <v>1.040029011883162</v>
       </c>
       <c r="J24">
-        <v>1.031705952621399</v>
+        <v>1.004908775509984</v>
       </c>
       <c r="K24">
-        <v>1.036040110400603</v>
+        <v>1.033494826620757</v>
       </c>
       <c r="L24">
-        <v>1.029246457559679</v>
+        <v>1.001260217410641</v>
       </c>
       <c r="M24">
-        <v>1.039089940767075</v>
+        <v>0.9979703257930316</v>
       </c>
       <c r="N24">
-        <v>1.014491490085706</v>
+        <v>1.005016993659108</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027408691038696</v>
+        <v>0.9869705298443198</v>
       </c>
       <c r="D25">
-        <v>1.033674280527333</v>
+        <v>1.025289972994286</v>
       </c>
       <c r="E25">
-        <v>1.027515533869259</v>
+        <v>0.9954685194820166</v>
       </c>
       <c r="F25">
-        <v>1.038024877817695</v>
+        <v>0.9953252309538683</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036745474040773</v>
+        <v>1.04357845361669</v>
       </c>
       <c r="J25">
-        <v>1.03305249310478</v>
+        <v>1.011944487178086</v>
       </c>
       <c r="K25">
-        <v>1.036733505362862</v>
+        <v>1.037507981859191</v>
       </c>
       <c r="L25">
-        <v>1.030594328528809</v>
+        <v>1.008137590524212</v>
       </c>
       <c r="M25">
-        <v>1.041070431319842</v>
+        <v>1.007996552764562</v>
       </c>
       <c r="N25">
-        <v>1.014949225294658</v>
+        <v>1.007445350851208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9949429719555173</v>
+        <v>0.9375674641323262</v>
       </c>
       <c r="D2">
-        <v>1.029480932566266</v>
+        <v>1.035712547953849</v>
       </c>
       <c r="E2">
-        <v>1.001927286292934</v>
+        <v>0.9510929669203719</v>
       </c>
       <c r="F2">
-        <v>1.004201317990376</v>
+        <v>0.9895782094387601</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046236039905591</v>
+        <v>1.049337402236512</v>
       </c>
       <c r="J2">
-        <v>1.017275997148598</v>
+        <v>0.9617905629520282</v>
       </c>
       <c r="K2">
-        <v>1.040544279209124</v>
+        <v>1.04669579886789</v>
       </c>
       <c r="L2">
-        <v>1.013359836100291</v>
+        <v>0.9632784912833958</v>
       </c>
       <c r="M2">
-        <v>1.015602430455279</v>
+        <v>1.001184671512353</v>
       </c>
       <c r="N2">
-        <v>1.009283944893394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9882587122690166</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.009509285116755</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044088245069363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000523353298545</v>
+        <v>0.9467063538240735</v>
       </c>
       <c r="D3">
-        <v>1.032426766172064</v>
+        <v>1.037067054470457</v>
       </c>
       <c r="E3">
-        <v>1.00646245760583</v>
+        <v>0.9588269428956184</v>
       </c>
       <c r="F3">
-        <v>1.010419626272965</v>
+        <v>0.9949741449895915</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048072808892866</v>
+        <v>1.049487680647808</v>
       </c>
       <c r="J3">
-        <v>1.020999761335873</v>
+        <v>0.9687633818327706</v>
       </c>
       <c r="K3">
-        <v>1.042660893933647</v>
+        <v>1.047246644725429</v>
       </c>
       <c r="L3">
-        <v>1.017013312512174</v>
+        <v>0.9700152328423541</v>
       </c>
       <c r="M3">
-        <v>1.020920899617542</v>
+        <v>1.005671739060918</v>
       </c>
       <c r="N3">
-        <v>1.010566978770766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9909891161809543</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.013060650225229</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04447508416292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004044742559802</v>
+        <v>0.9523775021722253</v>
       </c>
       <c r="D4">
-        <v>1.034290507574424</v>
+        <v>1.037931855449038</v>
       </c>
       <c r="E4">
-        <v>1.009330458431245</v>
+        <v>0.9636317899218569</v>
       </c>
       <c r="F4">
-        <v>1.014346259081131</v>
+        <v>0.9983481210817464</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049220625184756</v>
+        <v>1.049572111496015</v>
       </c>
       <c r="J4">
-        <v>1.023345546276311</v>
+        <v>0.973083157629127</v>
       </c>
       <c r="K4">
-        <v>1.043991968124828</v>
+        <v>1.047593055951436</v>
       </c>
       <c r="L4">
-        <v>1.019317562402581</v>
+        <v>0.9741899127006299</v>
       </c>
       <c r="M4">
-        <v>1.024274566769006</v>
+        <v>1.008466523797671</v>
       </c>
       <c r="N4">
-        <v>1.011374637646756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.9926762533620915</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.015272619822093</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044720909765007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005504658554075</v>
+        <v>0.9547078236893732</v>
       </c>
       <c r="D5">
-        <v>1.035064223608408</v>
+        <v>1.038297596703329</v>
       </c>
       <c r="E5">
-        <v>1.01052090839269</v>
+        <v>0.9656072828847115</v>
       </c>
       <c r="F5">
-        <v>1.015974855196423</v>
+        <v>0.999740318984809</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049693737428404</v>
+        <v>1.049605985669269</v>
       </c>
       <c r="J5">
-        <v>1.024317067587938</v>
+        <v>0.9748563429560173</v>
       </c>
       <c r="K5">
-        <v>1.044542633987294</v>
+        <v>1.047741193554237</v>
       </c>
       <c r="L5">
-        <v>1.020272534222311</v>
+        <v>0.9759037808323697</v>
       </c>
       <c r="M5">
-        <v>1.025664362145145</v>
+        <v>1.009617200227785</v>
       </c>
       <c r="N5">
-        <v>1.01170898336333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.993367633739119</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.016183335836393</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0448327767102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005748610573055</v>
+        <v>0.9550960510080679</v>
       </c>
       <c r="D6">
-        <v>1.035193569049082</v>
+        <v>1.03836485419982</v>
       </c>
       <c r="E6">
-        <v>1.0107199143474</v>
+        <v>0.9659364586418583</v>
       </c>
       <c r="F6">
-        <v>1.016247033919418</v>
+        <v>0.9999725894344305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04977263081628</v>
+        <v>1.04961323696768</v>
       </c>
       <c r="J6">
-        <v>1.024479348483234</v>
+        <v>0.9751516406096151</v>
       </c>
       <c r="K6">
-        <v>1.044634578732379</v>
+        <v>1.047771872553017</v>
       </c>
       <c r="L6">
-        <v>1.020432088947003</v>
+        <v>0.976189213346432</v>
       </c>
       <c r="M6">
-        <v>1.02589656261744</v>
+        <v>1.009809029295353</v>
       </c>
       <c r="N6">
-        <v>1.011764822595205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.9934827018671603</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.016335161022214</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044863157169408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00406432927643</v>
+        <v>0.9524088463856469</v>
       </c>
       <c r="D7">
-        <v>1.034300884065661</v>
+        <v>1.037952736353756</v>
       </c>
       <c r="E7">
-        <v>1.00934642436963</v>
+        <v>0.9636583571778252</v>
       </c>
       <c r="F7">
-        <v>1.014368106175254</v>
+        <v>0.9983668243487204</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049226983586347</v>
+        <v>1.049577143280328</v>
       </c>
       <c r="J7">
-        <v>1.023358584561157</v>
+        <v>0.9731070154976905</v>
       </c>
       <c r="K7">
-        <v>1.043999360801772</v>
+        <v>1.047610851837878</v>
       </c>
       <c r="L7">
-        <v>1.019330376011009</v>
+        <v>0.9742129715525529</v>
       </c>
       <c r="M7">
-        <v>1.024293215037456</v>
+        <v>1.008481992302425</v>
       </c>
       <c r="N7">
-        <v>1.01137912533883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.9926855604777237</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.015284862555373</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044753470748898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.996848008517727</v>
+        <v>0.9407088501925466</v>
       </c>
       <c r="D8">
-        <v>1.030485491103131</v>
+        <v>1.036191905895272</v>
       </c>
       <c r="E8">
-        <v>1.003474171258377</v>
+        <v>0.9537501362844504</v>
       </c>
       <c r="F8">
-        <v>1.006323581001114</v>
+        <v>0.9914273587646149</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046865406014171</v>
+        <v>1.049396007884478</v>
       </c>
       <c r="J8">
-        <v>1.018548040117809</v>
+        <v>0.9641888475221214</v>
       </c>
       <c r="K8">
-        <v>1.041267763149784</v>
+        <v>1.046902974072362</v>
       </c>
       <c r="L8">
-        <v>1.014607287444867</v>
+        <v>0.965595307496535</v>
       </c>
       <c r="M8">
-        <v>1.017418571298853</v>
+        <v>1.002724717879767</v>
       </c>
       <c r="N8">
-        <v>1.009722348654395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9891986976088144</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.010728182925839</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044257468988284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9834004675042798</v>
+        <v>0.9180171641449634</v>
       </c>
       <c r="D9">
-        <v>1.0234204526802</v>
+        <v>1.032974464665604</v>
       </c>
       <c r="E9">
-        <v>0.9925839624345791</v>
+        <v>0.9345897238211867</v>
       </c>
       <c r="F9">
-        <v>0.9913529972169781</v>
+        <v>0.9781991200831376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042377121987908</v>
+        <v>1.048972022628652</v>
       </c>
       <c r="J9">
-        <v>1.009553329884992</v>
+        <v>0.9468386125336936</v>
       </c>
       <c r="K9">
-        <v>1.036144643195835</v>
+        <v>1.045554285442305</v>
       </c>
       <c r="L9">
-        <v>1.005798516618291</v>
+        <v>0.948841370176262</v>
       </c>
       <c r="M9">
-        <v>1.004587941424144</v>
+        <v>0.9916560899025896</v>
       </c>
       <c r="N9">
-        <v>1.006620266358641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9823837726665736</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.001967663432522</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043300737566056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9738732545243889</v>
+        <v>0.9017395162034244</v>
       </c>
       <c r="D10">
-        <v>1.018454766208925</v>
+        <v>1.030771624519167</v>
       </c>
       <c r="E10">
-        <v>0.9849090902599256</v>
+        <v>0.9209425987858312</v>
       </c>
       <c r="F10">
-        <v>0.9807584788316698</v>
+        <v>0.9691309492332532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039141958642875</v>
+        <v>1.048623684632349</v>
       </c>
       <c r="J10">
-        <v>1.003163231399403</v>
+        <v>0.9344777684639732</v>
       </c>
       <c r="K10">
-        <v>1.032498621343328</v>
+        <v>1.044606659347697</v>
       </c>
       <c r="L10">
-        <v>0.9995562683269248</v>
+        <v>0.9369027292354616</v>
       </c>
       <c r="M10">
-        <v>0.9954840583039457</v>
+        <v>0.9840808555903386</v>
       </c>
       <c r="N10">
-        <v>1.004414270886507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9775443298822473</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.996026231979509</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04264738644989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9695968267425514</v>
+        <v>0.899315737759169</v>
       </c>
       <c r="D11">
-        <v>1.016237494177741</v>
+        <v>1.029819229223579</v>
       </c>
       <c r="E11">
-        <v>0.9814749092350282</v>
+        <v>0.9193061192036408</v>
       </c>
       <c r="F11">
-        <v>0.9760052286250043</v>
+        <v>0.9697211977699718</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037677648171495</v>
+        <v>1.048460176555388</v>
       </c>
       <c r="J11">
-        <v>1.000291487658251</v>
+        <v>0.9335723909489697</v>
       </c>
       <c r="K11">
-        <v>1.030859556896513</v>
+        <v>1.044199887574685</v>
       </c>
       <c r="L11">
-        <v>0.9967548468231496</v>
+        <v>0.9359290713393158</v>
       </c>
       <c r="M11">
-        <v>0.991394295647566</v>
+        <v>0.9852376460351743</v>
       </c>
       <c r="N11">
-        <v>1.003422530081023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9774533866466528</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.9973996832306342</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042392311289767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9679839897892375</v>
+        <v>0.9003678264594127</v>
       </c>
       <c r="D12">
-        <v>1.015403212631688</v>
+        <v>1.029453713433801</v>
       </c>
       <c r="E12">
-        <v>0.9801814529065532</v>
+        <v>0.9205021182442058</v>
       </c>
       <c r="F12">
-        <v>0.9742128472545014</v>
+        <v>0.971620000574927</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037123651141763</v>
+        <v>1.048395032061213</v>
       </c>
       <c r="J12">
-        <v>0.9992079682960291</v>
+        <v>0.9350815006695101</v>
       </c>
       <c r="K12">
-        <v>1.03024114382485</v>
+        <v>1.044037575519721</v>
       </c>
       <c r="L12">
-        <v>0.9956984561711851</v>
+        <v>0.9373291691578938</v>
       </c>
       <c r="M12">
-        <v>0.9898513447662726</v>
+        <v>0.9873118909611386</v>
       </c>
       <c r="N12">
-        <v>1.003048304004102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9782821568565179</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.9993806982017984</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042277553525375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9683310809485549</v>
+        <v>0.904086473331641</v>
       </c>
       <c r="D13">
-        <v>1.015582662877956</v>
+        <v>1.029530397618538</v>
       </c>
       <c r="E13">
-        <v>0.980459731654066</v>
+        <v>0.9238819310035467</v>
       </c>
       <c r="F13">
-        <v>0.9745985652535638</v>
+        <v>0.9746305253252434</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037242951293803</v>
+        <v>1.048408748996192</v>
       </c>
       <c r="J13">
-        <v>0.9994411668277569</v>
+        <v>0.9384782637926912</v>
       </c>
       <c r="K13">
-        <v>1.030374238631968</v>
+        <v>1.044070686826146</v>
       </c>
       <c r="L13">
-        <v>0.9959257888397042</v>
+        <v>0.9405791821228501</v>
       </c>
       <c r="M13">
-        <v>0.9901834194615003</v>
+        <v>0.9902147266419924</v>
       </c>
       <c r="N13">
-        <v>1.003128847650518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9798417475901622</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.001962357725002</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042298495319382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9694640168318408</v>
+        <v>0.907793208723491</v>
       </c>
       <c r="D14">
-        <v>1.016168753947803</v>
+        <v>1.029788280008105</v>
       </c>
       <c r="E14">
-        <v>0.9813683630975928</v>
+        <v>0.9271470360189009</v>
       </c>
       <c r="F14">
-        <v>0.9758576285203874</v>
+        <v>0.9771677883869082</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037632063757516</v>
+        <v>1.048454682153709</v>
       </c>
       <c r="J14">
-        <v>1.000202273488288</v>
+        <v>0.9416194222685824</v>
       </c>
       <c r="K14">
-        <v>1.030808637588448</v>
+        <v>1.044185741164019</v>
       </c>
       <c r="L14">
-        <v>0.9966678541833015</v>
+        <v>0.9436063162102867</v>
       </c>
       <c r="M14">
-        <v>0.9912672510420399</v>
+        <v>0.9925510793980535</v>
       </c>
       <c r="N14">
-        <v>1.003391717975888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9812284517685675</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.003987495091628</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042381251826715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9701587721044471</v>
+        <v>0.9092960092245811</v>
       </c>
       <c r="D15">
-        <v>1.016528428621309</v>
+        <v>1.029950514496379</v>
       </c>
       <c r="E15">
-        <v>0.981925798417556</v>
+        <v>0.9284360964159517</v>
       </c>
       <c r="F15">
-        <v>0.976629765631347</v>
+        <v>0.9780869327353829</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037870454751197</v>
+        <v>1.048483410644902</v>
       </c>
       <c r="J15">
-        <v>1.00066895265926</v>
+        <v>0.9428201277717922</v>
       </c>
       <c r="K15">
-        <v>1.031074997438239</v>
+        <v>1.044259961764016</v>
       </c>
       <c r="L15">
-        <v>0.997122936865756</v>
+        <v>0.9447664548720732</v>
       </c>
       <c r="M15">
-        <v>0.9919318258644182</v>
+        <v>0.9933599755260553</v>
       </c>
       <c r="N15">
-        <v>1.003552894560734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9817324626450554</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.00466531625721</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042439543227685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9741537439122695</v>
+        <v>0.9152775022603272</v>
       </c>
       <c r="D16">
-        <v>1.018600454999544</v>
+        <v>1.030866578896009</v>
       </c>
       <c r="E16">
-        <v>0.985134570142442</v>
+        <v>0.9333731934341896</v>
       </c>
       <c r="F16">
-        <v>0.9810702854293868</v>
+        <v>0.9812715061444761</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039237757060466</v>
+        <v>1.048641046745407</v>
       </c>
       <c r="J16">
-        <v>1.003351521758006</v>
+        <v>0.9472191970095346</v>
       </c>
       <c r="K16">
-        <v>1.032606085795041</v>
+        <v>1.044664919573699</v>
       </c>
       <c r="L16">
-        <v>0.9997400294745635</v>
+        <v>0.9490188841864365</v>
       </c>
       <c r="M16">
-        <v>0.9957522339609445</v>
+        <v>0.9959496482484131</v>
       </c>
       <c r="N16">
-        <v>1.004479289770823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9834016835843689</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.006672417988898</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.0427290020923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9766180979858021</v>
+        <v>0.9179676550025044</v>
       </c>
       <c r="D17">
-        <v>1.019881806878437</v>
+        <v>1.0314369962365</v>
       </c>
       <c r="E17">
-        <v>0.987116851729042</v>
+        <v>0.935491383477448</v>
       </c>
       <c r="F17">
-        <v>0.983810039430787</v>
+        <v>0.9824129469362355</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040078065112524</v>
+        <v>1.048735667631504</v>
       </c>
       <c r="J17">
-        <v>1.005005439520588</v>
+        <v>0.9489890569668437</v>
       </c>
       <c r="K17">
-        <v>1.033549990587985</v>
+        <v>1.044915393702988</v>
       </c>
       <c r="L17">
-        <v>1.001354603933387</v>
+        <v>0.9507336354343232</v>
       </c>
       <c r="M17">
-        <v>0.998108019755951</v>
+        <v>0.9967365316957748</v>
       </c>
       <c r="N17">
-        <v>1.005050368619753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9839708418290216</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.007161896497596</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.0429086635717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9780410589103349</v>
+        <v>0.9179825998542638</v>
       </c>
       <c r="D18">
-        <v>1.020622767717609</v>
+        <v>1.031758202652127</v>
       </c>
       <c r="E18">
-        <v>0.9882624675900272</v>
+        <v>0.9352877770239518</v>
       </c>
       <c r="F18">
-        <v>0.9853922374551661</v>
+        <v>0.9816892205442779</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040562119285805</v>
+        <v>1.048787130829848</v>
       </c>
       <c r="J18">
-        <v>1.005960109614862</v>
+        <v>0.9485471418050145</v>
       </c>
       <c r="K18">
-        <v>1.034094773314818</v>
+        <v>1.045050375521231</v>
       </c>
       <c r="L18">
-        <v>1.002286929349748</v>
+        <v>0.9503255547567673</v>
       </c>
       <c r="M18">
-        <v>0.9994679756653715</v>
+        <v>0.9958316889577132</v>
       </c>
       <c r="N18">
-        <v>1.005379970785704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9836048544910075</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.006201539765095</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042992565384677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9785238484273767</v>
+        <v>0.9155376688929593</v>
       </c>
       <c r="D19">
-        <v>1.020874343122789</v>
+        <v>1.031875197977585</v>
       </c>
       <c r="E19">
-        <v>0.9886513266126382</v>
+        <v>0.9329591062465181</v>
       </c>
       <c r="F19">
-        <v>0.985929091893598</v>
+        <v>0.9791444698901686</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04072615333685</v>
+        <v>1.048806112497042</v>
       </c>
       <c r="J19">
-        <v>1.00628395700629</v>
+        <v>0.9460644969846271</v>
       </c>
       <c r="K19">
-        <v>1.034279564893417</v>
+        <v>1.04510378870806</v>
       </c>
       <c r="L19">
-        <v>1.002603258415619</v>
+        <v>0.9479734962934747</v>
       </c>
       <c r="M19">
-        <v>0.9999293352168386</v>
+        <v>0.9932666405941929</v>
       </c>
       <c r="N19">
-        <v>1.005491773611729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9824049525006782</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.003835655435049</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043036666995797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9763552029132826</v>
+        <v>0.9060685564361987</v>
       </c>
       <c r="D20">
-        <v>1.019744999250529</v>
+        <v>1.031375180286341</v>
       </c>
       <c r="E20">
-        <v>0.9869052778890857</v>
+        <v>0.9245688286440564</v>
       </c>
       <c r="F20">
-        <v>0.9835177428184503</v>
+        <v>0.9715396778242696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039988541058127</v>
+        <v>1.04872550805592</v>
       </c>
       <c r="J20">
-        <v>1.004829034959838</v>
+        <v>0.9377708732657172</v>
       </c>
       <c r="K20">
-        <v>1.033449320163198</v>
+        <v>1.044887892900418</v>
       </c>
       <c r="L20">
-        <v>1.001182357682446</v>
+        <v>0.9400817521908217</v>
       </c>
       <c r="M20">
-        <v>0.9978567395075291</v>
+        <v>0.9861021350072465</v>
       </c>
       <c r="N20">
-        <v>1.004989461625443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9788352786104989</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>0.997614835731937</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042887895673751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9691310828485354</v>
+        <v>0.8924238828698787</v>
       </c>
       <c r="D21">
-        <v>1.015996464936266</v>
+        <v>1.029722686715711</v>
       </c>
       <c r="E21">
-        <v>0.9811012965871561</v>
+        <v>0.9130855599952865</v>
       </c>
       <c r="F21">
-        <v>0.9754876222365847</v>
+        <v>0.9636281607910785</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037517762987474</v>
+        <v>1.04844328541862</v>
       </c>
       <c r="J21">
-        <v>0.9999786202492018</v>
+        <v>0.9272261504005234</v>
       </c>
       <c r="K21">
-        <v>1.030680987207735</v>
+        <v>1.044162016094864</v>
       </c>
       <c r="L21">
-        <v>0.9964497797907772</v>
+        <v>0.9299245034931454</v>
       </c>
       <c r="M21">
-        <v>0.9909487614809852</v>
+        <v>0.9793330030807508</v>
       </c>
       <c r="N21">
-        <v>1.003314473765997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9746601038767708</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.9922141288708582</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042377859614901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,81 +1493,105 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9644469696489517</v>
+        <v>0.883610069373361</v>
       </c>
       <c r="D22">
-        <v>1.013577432137286</v>
+        <v>1.028657052344519</v>
       </c>
       <c r="E22">
-        <v>0.9773481634156594</v>
+        <v>0.9057099267747015</v>
       </c>
       <c r="F22">
-        <v>0.9702825453752333</v>
+        <v>0.9586939171911417</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035905613069623</v>
+        <v>1.048249397389832</v>
       </c>
       <c r="J22">
-        <v>0.9968310065296383</v>
+        <v>0.9204692271399624</v>
       </c>
       <c r="K22">
-        <v>1.02888463206121</v>
+        <v>1.043681410035747</v>
       </c>
       <c r="L22">
-        <v>0.9933821214124869</v>
+        <v>0.9234131930778574</v>
       </c>
       <c r="M22">
-        <v>0.9864666279575869</v>
+        <v>0.9751306028932458</v>
       </c>
       <c r="N22">
-        <v>1.002227294191234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9719994695860693</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9888879575743462</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042024679342392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9669441756141248</v>
+        <v>0.8883371822210056</v>
       </c>
       <c r="D23">
-        <v>1.014865919058878</v>
+        <v>1.029211037751434</v>
       </c>
       <c r="E23">
-        <v>0.9793480491514593</v>
+        <v>0.9096636636397155</v>
       </c>
       <c r="F23">
-        <v>0.9730573527655711</v>
+        <v>0.9613349932713547</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036766004601931</v>
+        <v>1.048351065841403</v>
       </c>
       <c r="J23">
-        <v>0.9985092920689982</v>
+        <v>0.9240931150173313</v>
       </c>
       <c r="K23">
-        <v>1.029842393133561</v>
+        <v>1.043925265571842</v>
       </c>
       <c r="L23">
-        <v>0.9950174428460105</v>
+        <v>0.9269049512215123</v>
       </c>
       <c r="M23">
-        <v>0.9888564406170158</v>
+        <v>0.9773817651604439</v>
       </c>
       <c r="N23">
-        <v>1.002806986101184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9734262591929738</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9906697395704545</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042187559084175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9764740384265705</v>
+        <v>0.9058122441412014</v>
       </c>
       <c r="D24">
-        <v>1.019806836555061</v>
+        <v>1.031382160329544</v>
       </c>
       <c r="E24">
-        <v>0.9870009117178395</v>
+        <v>0.9243194792463703</v>
       </c>
       <c r="F24">
-        <v>0.9836498679286061</v>
+        <v>0.9712051939043242</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040029011883162</v>
+        <v>1.04872554285491</v>
       </c>
       <c r="J24">
-        <v>1.004908775509984</v>
+        <v>0.9374888384780459</v>
       </c>
       <c r="K24">
-        <v>1.033494826620757</v>
+        <v>1.044879706486628</v>
       </c>
       <c r="L24">
-        <v>1.001260217410641</v>
+        <v>0.9398201312732702</v>
       </c>
       <c r="M24">
-        <v>0.9979703257930316</v>
+        <v>0.9857575796413923</v>
       </c>
       <c r="N24">
-        <v>1.005016993659108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9787024907910847</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>0.9972991022324784</v>
+      </c>
+      <c r="Q24">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R24">
+        <v>1.042854958004996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869705298443198</v>
+        <v>0.9241634316829432</v>
       </c>
       <c r="D25">
-        <v>1.025289972994286</v>
+        <v>1.033840219357871</v>
       </c>
       <c r="E25">
-        <v>0.9954685194820166</v>
+        <v>0.9397714987733933</v>
       </c>
       <c r="F25">
-        <v>0.9953252309538683</v>
+        <v>0.9817528797441964</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04357845361669</v>
+        <v>1.049098967336484</v>
       </c>
       <c r="J25">
-        <v>1.011944487178086</v>
+        <v>0.9515433310533455</v>
       </c>
       <c r="K25">
-        <v>1.037507981859191</v>
+        <v>1.04593497792716</v>
       </c>
       <c r="L25">
-        <v>1.008137590524212</v>
+        <v>0.9533827533346503</v>
       </c>
       <c r="M25">
-        <v>1.007996552764562</v>
+        <v>0.9946412211602093</v>
       </c>
       <c r="N25">
-        <v>1.007445350851208</v>
+        <v>0.9842345103768328</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.004330325974236</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043598245509947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9375674641323262</v>
+        <v>0.9431093048272833</v>
       </c>
       <c r="D2">
-        <v>1.035712547953849</v>
+        <v>1.032825697322989</v>
       </c>
       <c r="E2">
-        <v>0.9510929669203719</v>
+        <v>0.9558719677472083</v>
       </c>
       <c r="F2">
-        <v>0.9895782094387601</v>
+        <v>0.9919784157709765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049337402236512</v>
+        <v>1.04821970039377</v>
       </c>
       <c r="J2">
-        <v>0.9617905629520282</v>
+        <v>0.9671357832284684</v>
       </c>
       <c r="K2">
-        <v>1.04669579886789</v>
+        <v>1.043845903045111</v>
       </c>
       <c r="L2">
-        <v>0.9632784912833958</v>
+        <v>0.96798234402368</v>
       </c>
       <c r="M2">
-        <v>1.001184671512353</v>
+        <v>1.003550646910112</v>
       </c>
       <c r="N2">
-        <v>0.9882587122690166</v>
+        <v>0.9961239133680614</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.009509285116755</v>
+        <v>1.011381878584149</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044088245069363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042081863518561</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02364068081744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9467063538240735</v>
+        <v>0.9516721712219358</v>
       </c>
       <c r="D3">
-        <v>1.037067054470457</v>
+        <v>1.034091256967294</v>
       </c>
       <c r="E3">
-        <v>0.9588269428956184</v>
+        <v>0.9631139884292356</v>
       </c>
       <c r="F3">
-        <v>0.9949741449895915</v>
+        <v>0.9971223723816867</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049487680647808</v>
+        <v>1.048324723569994</v>
       </c>
       <c r="J3">
-        <v>0.9687633818327706</v>
+        <v>0.9735729944104835</v>
       </c>
       <c r="K3">
-        <v>1.047246644725429</v>
+        <v>1.044305752204073</v>
       </c>
       <c r="L3">
-        <v>0.9700152328423541</v>
+        <v>0.974241650599863</v>
       </c>
       <c r="M3">
-        <v>1.005671739060918</v>
+        <v>1.007792205888404</v>
       </c>
       <c r="N3">
-        <v>0.9909891161809543</v>
+        <v>0.998154283220216</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.013060650225229</v>
+        <v>1.014738922617691</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04447508416292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042404089054006</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023685067749011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9523775021722253</v>
+        <v>0.9569995543469004</v>
       </c>
       <c r="D4">
-        <v>1.037931855449038</v>
+        <v>1.034899908592828</v>
       </c>
       <c r="E4">
-        <v>0.9636317899218569</v>
+        <v>0.9676246830928072</v>
       </c>
       <c r="F4">
-        <v>0.9983481210817464</v>
+        <v>1.000346094574589</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049572111496015</v>
+        <v>1.048380620817971</v>
       </c>
       <c r="J4">
-        <v>0.973083157629127</v>
+        <v>0.9775710620332002</v>
       </c>
       <c r="K4">
-        <v>1.047593055951436</v>
+        <v>1.044594607113661</v>
       </c>
       <c r="L4">
-        <v>0.9741899127006299</v>
+        <v>0.9781302198790151</v>
       </c>
       <c r="M4">
-        <v>1.008466523797671</v>
+        <v>1.010440344333801</v>
       </c>
       <c r="N4">
-        <v>0.9926762533620915</v>
+        <v>0.9994117638793333</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.015272619822093</v>
+        <v>1.016834821875975</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044720909765007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042609306323373</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023709269424258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9547078236893732</v>
+        <v>0.959191547854047</v>
       </c>
       <c r="D5">
-        <v>1.038297596703329</v>
+        <v>1.035242247950712</v>
       </c>
       <c r="E5">
-        <v>0.9656072828847115</v>
+        <v>0.9694816965760442</v>
       </c>
       <c r="F5">
-        <v>0.999740318984809</v>
+        <v>1.001677863831726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049605985669269</v>
+        <v>1.048402821756132</v>
       </c>
       <c r="J5">
-        <v>0.9748563429560173</v>
+        <v>0.9792143522705729</v>
       </c>
       <c r="K5">
-        <v>1.047741193554237</v>
+        <v>1.044718734616381</v>
       </c>
       <c r="L5">
-        <v>0.9759037808323697</v>
+        <v>0.9797287083185271</v>
       </c>
       <c r="M5">
-        <v>1.009617200227785</v>
+        <v>1.011531987618714</v>
       </c>
       <c r="N5">
-        <v>0.993367633739119</v>
+        <v>0.9999276824646306</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.016183335836393</v>
+        <v>1.017698813416851</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0448327767102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042704919235391</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023719189608764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9550960510080679</v>
+        <v>0.9595568928870587</v>
       </c>
       <c r="D6">
-        <v>1.03836485419982</v>
+        <v>1.035305438948257</v>
       </c>
       <c r="E6">
-        <v>0.9659364586418583</v>
+        <v>0.9697912670938063</v>
       </c>
       <c r="F6">
-        <v>0.9999725894344305</v>
+        <v>1.001900140086234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04961323696768</v>
+        <v>1.048408301146565</v>
       </c>
       <c r="J6">
-        <v>0.9751516406096151</v>
+        <v>0.9794881379324328</v>
       </c>
       <c r="K6">
-        <v>1.047771872553017</v>
+        <v>1.044745245214819</v>
       </c>
       <c r="L6">
-        <v>0.976189213346432</v>
+        <v>0.9799950407055851</v>
       </c>
       <c r="M6">
-        <v>1.009809029295353</v>
+        <v>1.01171405015669</v>
       </c>
       <c r="N6">
-        <v>0.9934827018671603</v>
+        <v>1.000013581628057</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.016335161022214</v>
+        <v>1.017842908447818</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044863157169408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04273323348483</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023721787450538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9524088463856469</v>
+        <v>0.9570578465016834</v>
       </c>
       <c r="D7">
-        <v>1.037952736353756</v>
+        <v>1.034920066726252</v>
       </c>
       <c r="E7">
-        <v>0.9636583571778252</v>
+        <v>0.9676779868094414</v>
       </c>
       <c r="F7">
-        <v>0.9983668243487204</v>
+        <v>1.000376437916134</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049577143280328</v>
+        <v>1.048385984911159</v>
       </c>
       <c r="J7">
-        <v>0.9731070154976905</v>
+        <v>0.9776211531571585</v>
       </c>
       <c r="K7">
-        <v>1.047610851837878</v>
+        <v>1.044611675431147</v>
       </c>
       <c r="L7">
-        <v>0.9742129715525529</v>
+        <v>0.978179686532567</v>
       </c>
       <c r="M7">
-        <v>1.008481992302425</v>
+        <v>1.01046732184761</v>
       </c>
       <c r="N7">
-        <v>0.9926855604777237</v>
+        <v>0.9994574650667388</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.015284862555373</v>
+        <v>1.016856173501456</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044753470748898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042643379320292</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023711998710062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9407088501925466</v>
+        <v>0.9461416664207095</v>
       </c>
       <c r="D8">
-        <v>1.036191905895272</v>
+        <v>1.033274243080503</v>
       </c>
       <c r="E8">
-        <v>0.9537501362844504</v>
+        <v>0.9584486404793207</v>
       </c>
       <c r="F8">
-        <v>0.9914273587646149</v>
+        <v>0.9937794329130063</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049396007884478</v>
+        <v>1.048263517281461</v>
       </c>
       <c r="J8">
-        <v>0.9641888475221214</v>
+        <v>0.9694365280216986</v>
       </c>
       <c r="K8">
-        <v>1.046902974072362</v>
+        <v>1.04402159500753</v>
       </c>
       <c r="L8">
-        <v>0.965595307496535</v>
+        <v>0.9702225044568898</v>
       </c>
       <c r="M8">
-        <v>1.002724717879767</v>
+        <v>1.005044330304512</v>
       </c>
       <c r="N8">
-        <v>0.9891986976088144</v>
+        <v>0.9969429370759294</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.010728182925839</v>
+        <v>1.012564078179377</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044257468988284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042231127302479</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023659479572933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9180171641449634</v>
+        <v>0.9250040506812579</v>
       </c>
       <c r="D9">
-        <v>1.032974464665604</v>
+        <v>1.030270984864237</v>
       </c>
       <c r="E9">
-        <v>0.9345897238211867</v>
+        <v>0.9406143953074991</v>
       </c>
       <c r="F9">
-        <v>0.9781991200831376</v>
+        <v>0.9812316427767633</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048972022628652</v>
+        <v>1.04794787519547</v>
       </c>
       <c r="J9">
-        <v>0.9468386125336936</v>
+        <v>0.9535145184672918</v>
       </c>
       <c r="K9">
-        <v>1.045554285442305</v>
+        <v>1.042891311857524</v>
       </c>
       <c r="L9">
-        <v>0.948841370176262</v>
+        <v>0.9547505191515959</v>
       </c>
       <c r="M9">
-        <v>0.9916560899025896</v>
+        <v>0.9946367444979722</v>
       </c>
       <c r="N9">
-        <v>0.9823837726665736</v>
+        <v>0.9919182526772398</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.001967663432522</v>
+        <v>1.00432678280598</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043300737566056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041428514036781</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023528600689818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9017395162034244</v>
+        <v>0.9101041463062904</v>
       </c>
       <c r="D10">
-        <v>1.030771624519167</v>
+        <v>1.02821850522849</v>
       </c>
       <c r="E10">
-        <v>0.9209425987858312</v>
+        <v>0.9281574674753994</v>
       </c>
       <c r="F10">
-        <v>0.9691309492332532</v>
+        <v>0.9727620426375198</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048623684632349</v>
+        <v>1.04767604052729</v>
       </c>
       <c r="J10">
-        <v>0.9344777684639732</v>
+        <v>0.942401716950149</v>
       </c>
       <c r="K10">
-        <v>1.044606659347697</v>
+        <v>1.042096295725152</v>
       </c>
       <c r="L10">
-        <v>0.9369027292354616</v>
+        <v>0.9439574655937887</v>
       </c>
       <c r="M10">
-        <v>0.9840808555903386</v>
+        <v>0.987641140375329</v>
       </c>
       <c r="N10">
-        <v>0.9775443298822473</v>
+        <v>0.9885603228400847</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.996026231979509</v>
+        <v>0.9988439466733676</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04264738644989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040884749994385</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023418093429048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.899315737759169</v>
+        <v>0.9080393633636592</v>
       </c>
       <c r="D11">
-        <v>1.029819229223579</v>
+        <v>1.02733281514597</v>
       </c>
       <c r="E11">
-        <v>0.9193061192036408</v>
+        <v>0.9268599293642711</v>
       </c>
       <c r="F11">
-        <v>0.9697211977699718</v>
+        <v>0.9734712188959112</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048460176555388</v>
+        <v>1.047547524948373</v>
       </c>
       <c r="J11">
-        <v>0.9335723909489697</v>
+        <v>0.9418100069036306</v>
       </c>
       <c r="K11">
-        <v>1.044199887574685</v>
+        <v>1.04175704886578</v>
       </c>
       <c r="L11">
-        <v>0.9359290713393158</v>
+        <v>0.9433068395143602</v>
       </c>
       <c r="M11">
-        <v>0.9852376460351743</v>
+        <v>0.9889113912595765</v>
       </c>
       <c r="N11">
-        <v>0.9774533866466528</v>
+        <v>0.9888666546861178</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.9973996832306342</v>
+        <v>1.000305581448987</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042392311289767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04068067122226</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023366053971972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9003678264594127</v>
+        <v>0.9090207436552513</v>
       </c>
       <c r="D12">
-        <v>1.029453713433801</v>
+        <v>1.02699254206065</v>
       </c>
       <c r="E12">
-        <v>0.9205021182442058</v>
+        <v>0.9280056266330154</v>
       </c>
       <c r="F12">
-        <v>0.971620000574927</v>
+        <v>0.975314024386192</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048395032061213</v>
+        <v>1.047495074707291</v>
       </c>
       <c r="J12">
-        <v>0.9350815006695101</v>
+        <v>0.9432453847622402</v>
       </c>
       <c r="K12">
-        <v>1.044037575519721</v>
+        <v>1.041620256280551</v>
       </c>
       <c r="L12">
-        <v>0.9373291691578938</v>
+        <v>0.9446555619880594</v>
       </c>
       <c r="M12">
-        <v>0.9873118909611386</v>
+        <v>0.9909299593039512</v>
       </c>
       <c r="N12">
-        <v>0.9782821568565179</v>
+        <v>0.9896310994216547</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.9993806982017984</v>
+        <v>1.002241505122681</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042277553525375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040583957804469</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02334487608274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.904086473331641</v>
+        <v>0.9123024168411744</v>
       </c>
       <c r="D13">
-        <v>1.029530397618538</v>
+        <v>1.027063830732071</v>
       </c>
       <c r="E13">
-        <v>0.9238819310035467</v>
+        <v>0.9309997758988712</v>
       </c>
       <c r="F13">
-        <v>0.9746305253252434</v>
+        <v>0.9781199861446273</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048408748996192</v>
+        <v>1.047505968168571</v>
       </c>
       <c r="J13">
-        <v>0.9384782637926912</v>
+        <v>0.946236805239543</v>
       </c>
       <c r="K13">
-        <v>1.044070686826146</v>
+        <v>1.041647913531637</v>
       </c>
       <c r="L13">
-        <v>0.9405791821228501</v>
+        <v>0.9475311299190283</v>
       </c>
       <c r="M13">
-        <v>0.9902147266419924</v>
+        <v>0.9936332415753873</v>
       </c>
       <c r="N13">
-        <v>0.9798417475901622</v>
+        <v>0.9907224003877119</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.001962357725002</v>
+        <v>1.004664655915104</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042298495319382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040600797411573</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023349284948764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.907793208723491</v>
+        <v>0.9155610022376472</v>
       </c>
       <c r="D14">
-        <v>1.029788280008105</v>
+        <v>1.027303960616576</v>
       </c>
       <c r="E14">
-        <v>0.9271470360189009</v>
+        <v>0.9338649623275737</v>
       </c>
       <c r="F14">
-        <v>0.9771677883869082</v>
+        <v>0.9804579886404977</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048454682153709</v>
+        <v>1.047543037024122</v>
       </c>
       <c r="J14">
-        <v>0.9416194222685824</v>
+        <v>0.9489648292148415</v>
       </c>
       <c r="K14">
-        <v>1.044185741164019</v>
+        <v>1.041745020394761</v>
       </c>
       <c r="L14">
-        <v>0.9436063162102867</v>
+        <v>0.9501707930113517</v>
       </c>
       <c r="M14">
-        <v>0.9925510793980535</v>
+        <v>0.9957755612488512</v>
       </c>
       <c r="N14">
-        <v>0.9812284517685675</v>
+        <v>0.9916154530791939</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.003987495091628</v>
+        <v>1.00653605553455</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042381251826715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040671004028237</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023364245433663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9092960092245811</v>
+        <v>0.9168827469125277</v>
       </c>
       <c r="D15">
-        <v>1.029950514496379</v>
+        <v>1.027455229318709</v>
       </c>
       <c r="E15">
-        <v>0.9284360964159517</v>
+        <v>0.9349916690827553</v>
       </c>
       <c r="F15">
-        <v>0.9780869327353829</v>
+        <v>0.9812989309568466</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048483410644902</v>
+        <v>1.047566507901962</v>
       </c>
       <c r="J15">
-        <v>0.9428201277717922</v>
+        <v>0.9499993233751964</v>
       </c>
       <c r="K15">
-        <v>1.044259961764016</v>
+        <v>1.041808152363928</v>
       </c>
       <c r="L15">
-        <v>0.9447664548720732</v>
+        <v>0.9511738507600354</v>
       </c>
       <c r="M15">
-        <v>0.9933599755260553</v>
+        <v>0.9965084109283361</v>
       </c>
       <c r="N15">
-        <v>0.9817324626450554</v>
+        <v>0.9919167095916452</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.00466531625721</v>
+        <v>1.007153704844336</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042439543227685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04072203356879</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023373706344199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9152775022603272</v>
+        <v>0.9221881598130618</v>
       </c>
       <c r="D16">
-        <v>1.030866578896009</v>
+        <v>1.028308467601777</v>
       </c>
       <c r="E16">
-        <v>0.9333731934341896</v>
+        <v>0.939321635743626</v>
       </c>
       <c r="F16">
-        <v>0.9812715061444761</v>
+        <v>0.9842004320270809</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048641046745407</v>
+        <v>1.047692642624565</v>
       </c>
       <c r="J16">
-        <v>0.9472191970095346</v>
+        <v>0.9537814600757397</v>
       </c>
       <c r="K16">
-        <v>1.044664919573699</v>
+        <v>1.04214951277709</v>
       </c>
       <c r="L16">
-        <v>0.9490188841864365</v>
+        <v>0.9548400597551782</v>
       </c>
       <c r="M16">
-        <v>0.9959496482484131</v>
+        <v>0.9988233986799843</v>
       </c>
       <c r="N16">
-        <v>0.9834016835843689</v>
+        <v>0.9928168730678256</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.006672417988898</v>
+        <v>1.008943777979118</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.0427290020923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04096683720248</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02342479801811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9179676550025044</v>
+        <v>0.9246207202143519</v>
       </c>
       <c r="D17">
-        <v>1.0314369962365</v>
+        <v>1.028839982093618</v>
       </c>
       <c r="E17">
-        <v>0.935491383477448</v>
+        <v>0.9412094475040916</v>
       </c>
       <c r="F17">
-        <v>0.9824129469362355</v>
+        <v>0.985238872399647</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048735667631504</v>
+        <v>1.047767757227158</v>
       </c>
       <c r="J17">
-        <v>0.9489890569668437</v>
+        <v>0.9553190354717861</v>
       </c>
       <c r="K17">
-        <v>1.044915393702988</v>
+        <v>1.042360556589546</v>
       </c>
       <c r="L17">
-        <v>0.9507336354343232</v>
+        <v>0.9563332791856165</v>
       </c>
       <c r="M17">
-        <v>0.9967365316957748</v>
+        <v>0.9995107643353742</v>
       </c>
       <c r="N17">
-        <v>0.9839708418290216</v>
+        <v>0.9930909951725387</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.007161896497596</v>
+        <v>1.009354828046233</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.0429086635717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041118874377442</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023455332452173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9179825998542638</v>
+        <v>0.9246635256076063</v>
       </c>
       <c r="D18">
-        <v>1.031758202652127</v>
+        <v>1.029138875244548</v>
       </c>
       <c r="E18">
-        <v>0.9352877770239518</v>
+        <v>0.9410278987256913</v>
       </c>
       <c r="F18">
-        <v>0.9816892205442779</v>
+        <v>0.984538379891278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048787130829848</v>
+        <v>1.047807466563276</v>
       </c>
       <c r="J18">
-        <v>0.9485471418050145</v>
+        <v>0.9549092640237339</v>
       </c>
       <c r="K18">
-        <v>1.045050375521231</v>
+        <v>1.042472900267994</v>
       </c>
       <c r="L18">
-        <v>0.9503255547567673</v>
+        <v>0.9559486175194905</v>
       </c>
       <c r="M18">
-        <v>0.9958316889577132</v>
+        <v>0.9986294471789499</v>
       </c>
       <c r="N18">
-        <v>0.9836048544910075</v>
+        <v>0.992759450271157</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.006201539765095</v>
+        <v>1.008413553693613</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042992565384677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041185621167012</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023471499319526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9155376688929593</v>
+        <v>0.9224801008183501</v>
       </c>
       <c r="D19">
-        <v>1.031875197977585</v>
+        <v>1.029248140731738</v>
       </c>
       <c r="E19">
-        <v>0.9329591062465181</v>
+        <v>0.938925605045441</v>
       </c>
       <c r="F19">
-        <v>0.9791444698901686</v>
+        <v>0.9821231789791002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048806112497042</v>
+        <v>1.047822816792041</v>
       </c>
       <c r="J19">
-        <v>0.9460644969846271</v>
+        <v>0.9526752323495885</v>
       </c>
       <c r="K19">
-        <v>1.04510378870806</v>
+        <v>1.042518471984907</v>
       </c>
       <c r="L19">
-        <v>0.9479734962934747</v>
+        <v>0.9538182288301789</v>
       </c>
       <c r="M19">
-        <v>0.9932666405941929</v>
+        <v>0.9961915493111257</v>
       </c>
       <c r="N19">
-        <v>0.9824049525006782</v>
+        <v>0.991859732809047</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.003835655435049</v>
+        <v>1.006149008956835</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043036666995797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041224809677748</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023477767222361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9060685564361987</v>
+        <v>0.9139615161579375</v>
       </c>
       <c r="D20">
-        <v>1.031375180286341</v>
+        <v>1.028782336290125</v>
       </c>
       <c r="E20">
-        <v>0.9245688286440564</v>
+        <v>0.9313642226446224</v>
       </c>
       <c r="F20">
-        <v>0.9715396778242696</v>
+        <v>0.9749658291255261</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04872550805592</v>
+        <v>1.047759644334156</v>
       </c>
       <c r="J20">
-        <v>0.9377708732657172</v>
+        <v>0.945265365905229</v>
       </c>
       <c r="K20">
-        <v>1.044887892900418</v>
+        <v>1.042337283937799</v>
       </c>
       <c r="L20">
-        <v>0.9400817521908217</v>
+        <v>0.9467317846680708</v>
       </c>
       <c r="M20">
-        <v>0.9861021350072465</v>
+        <v>0.9894636364776144</v>
       </c>
       <c r="N20">
-        <v>0.9788352786104989</v>
+        <v>0.9893421271458234</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>0.997614835731937</v>
+        <v>1.000275258990335</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042887895673751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041100964395069</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02345203035214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8924238828698787</v>
+        <v>0.9020357666017682</v>
       </c>
       <c r="D21">
-        <v>1.029722686715711</v>
+        <v>1.027243403783896</v>
       </c>
       <c r="E21">
-        <v>0.9130855599952865</v>
+        <v>0.9214303594895557</v>
       </c>
       <c r="F21">
-        <v>0.9636281607910785</v>
+        <v>0.967808199710458</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04844328541862</v>
+        <v>1.047534773020792</v>
       </c>
       <c r="J21">
-        <v>0.9272261504005234</v>
+        <v>0.9362883881262919</v>
       </c>
       <c r="K21">
-        <v>1.044162016094864</v>
+        <v>1.04172639203148</v>
       </c>
       <c r="L21">
-        <v>0.9299245034931454</v>
+        <v>0.9380705649627529</v>
       </c>
       <c r="M21">
-        <v>0.9793330030807508</v>
+        <v>0.9834262455340141</v>
       </c>
       <c r="N21">
-        <v>0.9746601038767708</v>
+        <v>0.9870033522867816</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.9922141288708582</v>
+        <v>0.9954538848672502</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042377859614901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040672545805566</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023360840859731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,105 +1679,123 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.883610069373361</v>
+        <v>0.8944008086615334</v>
       </c>
       <c r="D22">
-        <v>1.028657052344519</v>
+        <v>1.026251065794869</v>
       </c>
       <c r="E22">
-        <v>0.9057099267747015</v>
+        <v>0.9151178006464054</v>
       </c>
       <c r="F22">
-        <v>0.9586939171911417</v>
+        <v>0.9633886499818688</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048249397389832</v>
+        <v>1.047377117275186</v>
       </c>
       <c r="J22">
-        <v>0.9204692271399624</v>
+        <v>0.9305934830030176</v>
       </c>
       <c r="K22">
-        <v>1.043681410035747</v>
+        <v>1.041319824987246</v>
       </c>
       <c r="L22">
-        <v>0.9234131930778574</v>
+        <v>0.932581713920578</v>
       </c>
       <c r="M22">
-        <v>0.9751306028932458</v>
+        <v>0.9797220292175952</v>
       </c>
       <c r="N22">
-        <v>0.9719994695860693</v>
+        <v>0.9855359590137829</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9888879575743462</v>
+        <v>0.992522039490112</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042024679342392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04037038703557</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023297352686557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8883371822210056</v>
+        <v>0.8984290052054702</v>
       </c>
       <c r="D23">
-        <v>1.029211037751434</v>
+        <v>1.026766249975762</v>
       </c>
       <c r="E23">
-        <v>0.9096636636397155</v>
+        <v>0.9184346143598093</v>
       </c>
       <c r="F23">
-        <v>0.9613349932713547</v>
+        <v>0.9657246964435678</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048351065841403</v>
+        <v>1.047458865822011</v>
       </c>
       <c r="J23">
-        <v>0.9240931150173313</v>
+        <v>0.9335865032685171</v>
       </c>
       <c r="K23">
-        <v>1.043925265571842</v>
+        <v>1.041524498031067</v>
       </c>
       <c r="L23">
-        <v>0.9269049512215123</v>
+        <v>0.9354604008142917</v>
       </c>
       <c r="M23">
-        <v>0.9773817651604439</v>
+        <v>0.9816777848398465</v>
       </c>
       <c r="N23">
-        <v>0.9734262591929738</v>
+        <v>0.9862530951944729</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9906697395704545</v>
+        <v>0.9940699997449528</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042187559084175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04050461200035</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023330334040631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9058122441412014</v>
+        <v>0.9137325172204595</v>
       </c>
       <c r="D24">
-        <v>1.031382160329544</v>
+        <v>1.028787838295032</v>
       </c>
       <c r="E24">
-        <v>0.9243194792463703</v>
+        <v>0.9311382253507583</v>
       </c>
       <c r="F24">
-        <v>0.9712051939043242</v>
+        <v>0.9746464719958112</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04872554285491</v>
+        <v>1.047757767287486</v>
       </c>
       <c r="J24">
-        <v>0.9374888384780459</v>
+        <v>0.9450095329800559</v>
       </c>
       <c r="K24">
-        <v>1.044879706486628</v>
+        <v>1.042327588889257</v>
       </c>
       <c r="L24">
-        <v>0.9398201312732702</v>
+        <v>0.9464931096971758</v>
       </c>
       <c r="M24">
-        <v>0.9857575796413923</v>
+        <v>0.9891339499181776</v>
       </c>
       <c r="N24">
-        <v>0.9787024907910847</v>
+        <v>0.9892388364244253</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>0.9972991022324784</v>
+        <v>0.9999714408387732</v>
       </c>
       <c r="Q24">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042854958004996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041064251943886</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023451252082542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9241634316829432</v>
+        <v>0.9306720516588697</v>
       </c>
       <c r="D25">
-        <v>1.033840219357871</v>
+        <v>1.031079541487465</v>
       </c>
       <c r="E25">
-        <v>0.9397714987733933</v>
+        <v>0.9453835280710955</v>
       </c>
       <c r="F25">
-        <v>0.9817528797441964</v>
+        <v>0.9845760835495446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049098967336484</v>
+        <v>1.048047046828999</v>
       </c>
       <c r="J25">
-        <v>0.9515433310533455</v>
+        <v>0.957781143403641</v>
       </c>
       <c r="K25">
-        <v>1.04593497792716</v>
+        <v>1.043213811772467</v>
       </c>
       <c r="L25">
-        <v>0.9533827533346503</v>
+        <v>0.9588933146252031</v>
       </c>
       <c r="M25">
-        <v>0.9946412211602093</v>
+        <v>0.9974186498328983</v>
       </c>
       <c r="N25">
-        <v>0.9842345103768328</v>
+        <v>0.9932303949008501</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.004330325974236</v>
+        <v>1.006528588750009</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043598245509947</v>
+        <v>1.041687724383018</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023569570269883</v>
       </c>
     </row>
   </sheetData>
